--- a/static/excels/ActivityConcUnit.xlsx
+++ b/static/excels/ActivityConcUnit.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idaca\DjangoProjects\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idaca\DjangoProjects\wtp\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3815115-FFA5-4EF1-A1E1-87A88758E69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C5C9C7B-1732-4528-A8E5-3412CCCE4710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2460" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activityconcentrationunits" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Activityconcentrationunits">Activityconcentrationunits!$A$1:$E$390</definedName>
+    <definedName name="Activityconcentrationunits">Activityconcentrationunits!$A$1:$D$390</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -448,13 +448,13 @@
   <dimension ref="A1:E390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -463,2480 +463,2480 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>23</v>
+      <c r="E2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3">
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1000</v>
       </c>
-      <c r="E3">
-        <v>23</v>
+      <c r="E3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4">
         <v>1E-3</v>
       </c>
-      <c r="E4">
-        <v>23</v>
+      <c r="E4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>23</v>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E6">
-        <v>23</v>
+      <c r="E6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7">
         <v>37</v>
       </c>
-      <c r="E7">
-        <v>23</v>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8">
         <v>37000</v>
       </c>
-      <c r="E8">
-        <v>23</v>
+      <c r="E8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>3</v>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
       <c r="D11">
         <v>1E-3</v>
       </c>
-      <c r="E11">
-        <v>3</v>
+      <c r="E11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="D12">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E12">
-        <v>3</v>
+      <c r="E12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
       <c r="D13">
         <v>37000</v>
       </c>
-      <c r="E13">
-        <v>3</v>
+      <c r="E13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>23</v>
+      <c r="E14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
       <c r="D15">
         <v>1000</v>
       </c>
-      <c r="E15">
-        <v>23</v>
+      <c r="E15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
       <c r="D16">
         <v>1000</v>
       </c>
-      <c r="E16">
-        <v>23</v>
+      <c r="E16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>23</v>
+      <c r="E17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>23</v>
+      <c r="E18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
       <c r="D19">
         <v>1000</v>
       </c>
-      <c r="E19">
-        <v>23</v>
+      <c r="E19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>3</v>
+      <c r="E20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
       <c r="D21">
         <v>1000</v>
       </c>
-      <c r="E21">
-        <v>3</v>
+      <c r="E21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
       <c r="D22">
         <v>1000</v>
       </c>
-      <c r="E22">
-        <v>3</v>
+      <c r="E22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>3</v>
+      <c r="E23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>12</v>
+      <c r="E24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>9</v>
+      <c r="E25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>1E-3</v>
       </c>
-      <c r="E26">
-        <v>9</v>
+      <c r="E26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
         <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
       </c>
       <c r="D27">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E27">
-        <v>9</v>
+      <c r="E27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
         <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
       </c>
       <c r="D28">
         <v>37000</v>
       </c>
-      <c r="E28">
-        <v>9</v>
+      <c r="E28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>48</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
         <v>12</v>
       </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>9</v>
+      <c r="E29" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>49</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
       <c r="D30">
         <v>1000</v>
       </c>
-      <c r="E30">
-        <v>9</v>
+      <c r="E30" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>50</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
       <c r="D31">
         <v>1000</v>
       </c>
-      <c r="E31">
-        <v>9</v>
+      <c r="E31" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>51</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32">
-        <v>9</v>
+      <c r="E32" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>52</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33">
-        <v>10</v>
+      <c r="E33" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>53</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
         <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
       </c>
       <c r="D34">
         <v>1E-3</v>
       </c>
-      <c r="E34">
-        <v>10</v>
+      <c r="E34" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E35">
-        <v>10</v>
+      <c r="E35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>55</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
         <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
       </c>
       <c r="D36">
         <v>37000</v>
       </c>
-      <c r="E36">
-        <v>10</v>
+      <c r="E36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>56</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37">
-        <v>10</v>
+      <c r="E37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>57</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
         <v>13</v>
       </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
       <c r="D38">
         <v>1000</v>
       </c>
-      <c r="E38">
-        <v>10</v>
+      <c r="E38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>58</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
         <v>18</v>
       </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
       <c r="D39">
         <v>1000</v>
       </c>
-      <c r="E39">
-        <v>10</v>
+      <c r="E39" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>59</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
         <v>19</v>
       </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40">
-        <v>10</v>
+      <c r="E40" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>60</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41">
-        <v>11</v>
+      <c r="E41" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>61</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
+      <c r="B42">
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>1000</v>
       </c>
-      <c r="E42">
-        <v>11</v>
+      <c r="E42" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>62</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
         <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
       </c>
       <c r="D43">
         <v>1E-3</v>
       </c>
-      <c r="E43">
-        <v>11</v>
+      <c r="E43" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>63</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
-        <v>26</v>
-      </c>
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44">
-        <v>11</v>
+      <c r="E44" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>64</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
         <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
       </c>
       <c r="D45">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E45">
-        <v>11</v>
+      <c r="E45" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>65</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
         <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>26</v>
       </c>
       <c r="D46">
         <v>37</v>
       </c>
-      <c r="E46">
-        <v>11</v>
+      <c r="E46" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>66</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
         <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>26</v>
       </c>
       <c r="D47">
         <v>37000</v>
       </c>
-      <c r="E47">
-        <v>11</v>
+      <c r="E47" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>67</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
         <v>20</v>
-      </c>
-      <c r="C48" t="s">
-        <v>26</v>
       </c>
       <c r="D48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E48">
-        <v>11</v>
+      <c r="E48" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>68</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
         <v>12</v>
       </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49">
-        <v>11</v>
+      <c r="E49" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>69</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
         <v>13</v>
       </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
       <c r="D50">
         <v>1000</v>
       </c>
-      <c r="E50">
-        <v>11</v>
+      <c r="E50" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>70</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
         <v>14</v>
       </c>
-      <c r="C51" t="s">
-        <v>26</v>
-      </c>
       <c r="D51">
         <v>1000</v>
       </c>
-      <c r="E51">
-        <v>11</v>
+      <c r="E51" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>71</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
         <v>15</v>
       </c>
-      <c r="C52" t="s">
-        <v>26</v>
-      </c>
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52">
-        <v>11</v>
+      <c r="E52" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>72</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
         <v>16</v>
       </c>
-      <c r="C53" t="s">
-        <v>26</v>
-      </c>
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53">
-        <v>11</v>
+      <c r="E53" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>73</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
         <v>17</v>
       </c>
-      <c r="C54" t="s">
-        <v>26</v>
-      </c>
       <c r="D54">
         <v>1000</v>
       </c>
-      <c r="E54">
-        <v>11</v>
+      <c r="E54" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>74</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
         <v>0</v>
       </c>
-      <c r="C55" t="s">
-        <v>26</v>
-      </c>
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55">
-        <v>18</v>
+      <c r="E55" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>75</v>
       </c>
-      <c r="B56" t="s">
-        <v>1</v>
+      <c r="B56">
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>1000</v>
       </c>
-      <c r="E56">
-        <v>18</v>
+      <c r="E56" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>76</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
         <v>2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>26</v>
       </c>
       <c r="D57">
         <v>1E-3</v>
       </c>
-      <c r="E57">
-        <v>18</v>
+      <c r="E57" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>77</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
         <v>3</v>
       </c>
-      <c r="C58" t="s">
-        <v>26</v>
-      </c>
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58">
-        <v>18</v>
+      <c r="E58" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>78</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
         <v>4</v>
-      </c>
-      <c r="C59" t="s">
-        <v>26</v>
       </c>
       <c r="D59">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E59">
-        <v>18</v>
+      <c r="E59" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>79</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
         <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>26</v>
       </c>
       <c r="D60">
         <v>37</v>
       </c>
-      <c r="E60">
-        <v>18</v>
+      <c r="E60" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>80</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
         <v>6</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
       </c>
       <c r="D61">
         <v>37000</v>
       </c>
-      <c r="E61">
-        <v>18</v>
+      <c r="E61" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>82</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
         <v>12</v>
       </c>
-      <c r="C62" t="s">
-        <v>26</v>
-      </c>
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62">
-        <v>18</v>
+      <c r="E62" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>83</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
         <v>13</v>
       </c>
-      <c r="C63" t="s">
-        <v>26</v>
-      </c>
       <c r="D63">
         <v>1000</v>
       </c>
-      <c r="E63">
-        <v>18</v>
+      <c r="E63" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>84</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
         <v>14</v>
       </c>
-      <c r="C64" t="s">
-        <v>26</v>
-      </c>
       <c r="D64">
         <v>1000</v>
       </c>
-      <c r="E64">
-        <v>18</v>
+      <c r="E64" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>85</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
         <v>15</v>
       </c>
-      <c r="C65" t="s">
-        <v>26</v>
-      </c>
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65">
-        <v>18</v>
+      <c r="E65" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>86</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
         <v>16</v>
       </c>
-      <c r="C66" t="s">
-        <v>26</v>
-      </c>
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="E66">
-        <v>18</v>
+      <c r="E66" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>87</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
         <v>17</v>
       </c>
-      <c r="C67" t="s">
-        <v>26</v>
-      </c>
       <c r="D67">
         <v>1000</v>
       </c>
-      <c r="E67">
-        <v>18</v>
+      <c r="E67" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>88</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
         <v>0</v>
       </c>
-      <c r="C68" t="s">
-        <v>26</v>
-      </c>
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68">
-        <v>19</v>
+      <c r="E68" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>89</v>
       </c>
-      <c r="B69" t="s">
-        <v>1</v>
+      <c r="B69">
+        <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>1000</v>
       </c>
-      <c r="E69">
-        <v>19</v>
+      <c r="E69" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>90</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
         <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>26</v>
       </c>
       <c r="D70">
         <v>1E-3</v>
       </c>
-      <c r="E70">
-        <v>19</v>
+      <c r="E70" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>91</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
         <v>3</v>
       </c>
-      <c r="C71" t="s">
-        <v>26</v>
-      </c>
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71">
-        <v>19</v>
+      <c r="E71" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>92</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
         <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>26</v>
       </c>
       <c r="D72">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E72">
-        <v>19</v>
+      <c r="E72" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>93</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
         <v>5</v>
-      </c>
-      <c r="C73" t="s">
-        <v>26</v>
       </c>
       <c r="D73">
         <v>37</v>
       </c>
-      <c r="E73">
-        <v>19</v>
+      <c r="E73" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>94</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
         <v>6</v>
-      </c>
-      <c r="C74" t="s">
-        <v>26</v>
       </c>
       <c r="D74">
         <v>37000</v>
       </c>
-      <c r="E74">
-        <v>19</v>
+      <c r="E74" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>96</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
         <v>12</v>
       </c>
-      <c r="C75" t="s">
-        <v>26</v>
-      </c>
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75">
-        <v>19</v>
+      <c r="E75" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>97</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
         <v>13</v>
       </c>
-      <c r="C76" t="s">
-        <v>26</v>
-      </c>
       <c r="D76">
         <v>1000</v>
       </c>
-      <c r="E76">
-        <v>19</v>
+      <c r="E76" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>98</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
         <v>14</v>
       </c>
-      <c r="C77" t="s">
-        <v>26</v>
-      </c>
       <c r="D77">
         <v>1000</v>
       </c>
-      <c r="E77">
-        <v>19</v>
+      <c r="E77" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>99</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
         <v>15</v>
       </c>
-      <c r="C78" t="s">
-        <v>26</v>
-      </c>
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78">
-        <v>19</v>
+      <c r="E78" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>100</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
         <v>16</v>
       </c>
-      <c r="C79" t="s">
-        <v>26</v>
-      </c>
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79">
-        <v>19</v>
+      <c r="E79" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>101</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
         <v>17</v>
       </c>
-      <c r="C80" t="s">
-        <v>26</v>
-      </c>
       <c r="D80">
         <v>1000</v>
       </c>
-      <c r="E80">
-        <v>19</v>
+      <c r="E80" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>102</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
         <v>0</v>
       </c>
-      <c r="C81" t="s">
-        <v>26</v>
-      </c>
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81">
-        <v>20</v>
+      <c r="E81" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>103</v>
       </c>
-      <c r="B82" t="s">
-        <v>1</v>
+      <c r="B82">
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>1000</v>
       </c>
-      <c r="E82">
-        <v>20</v>
+      <c r="E82" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>104</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
         <v>2</v>
-      </c>
-      <c r="C83" t="s">
-        <v>26</v>
       </c>
       <c r="D83">
         <v>1E-3</v>
       </c>
-      <c r="E83">
-        <v>20</v>
+      <c r="E83" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>105</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
         <v>3</v>
       </c>
-      <c r="C84" t="s">
-        <v>26</v>
-      </c>
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="E84">
-        <v>20</v>
+      <c r="E84" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>106</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
         <v>4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>26</v>
       </c>
       <c r="D85">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E85">
-        <v>20</v>
+      <c r="E85" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>107</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
         <v>5</v>
-      </c>
-      <c r="C86" t="s">
-        <v>26</v>
       </c>
       <c r="D86">
         <v>37</v>
       </c>
-      <c r="E86">
-        <v>20</v>
+      <c r="E86" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>108</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
         <v>6</v>
-      </c>
-      <c r="C87" t="s">
-        <v>26</v>
       </c>
       <c r="D87">
         <v>37000</v>
       </c>
-      <c r="E87">
-        <v>20</v>
+      <c r="E87" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>110</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
         <v>12</v>
       </c>
-      <c r="C88" t="s">
-        <v>26</v>
-      </c>
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88">
-        <v>20</v>
+      <c r="E88" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>111</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
         <v>13</v>
       </c>
-      <c r="C89" t="s">
-        <v>26</v>
-      </c>
       <c r="D89">
         <v>1000</v>
       </c>
-      <c r="E89">
-        <v>20</v>
+      <c r="E89" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>112</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
         <v>14</v>
       </c>
-      <c r="C90" t="s">
-        <v>26</v>
-      </c>
       <c r="D90">
         <v>1000</v>
       </c>
-      <c r="E90">
-        <v>20</v>
+      <c r="E90" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>113</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
         <v>15</v>
       </c>
-      <c r="C91" t="s">
-        <v>26</v>
-      </c>
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91">
-        <v>20</v>
+      <c r="E91" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>114</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s">
         <v>16</v>
       </c>
-      <c r="C92" t="s">
-        <v>26</v>
-      </c>
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92">
-        <v>20</v>
+      <c r="E92" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>115</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
         <v>17</v>
       </c>
-      <c r="C93" t="s">
-        <v>26</v>
-      </c>
       <c r="D93">
         <v>1000</v>
       </c>
-      <c r="E93">
-        <v>20</v>
+      <c r="E93" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>116</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
         <v>0</v>
       </c>
-      <c r="C94" t="s">
-        <v>26</v>
-      </c>
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="E94">
-        <v>21</v>
+      <c r="E94" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>117</v>
       </c>
-      <c r="B95" t="s">
-        <v>1</v>
+      <c r="B95">
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>1000</v>
       </c>
-      <c r="E95">
-        <v>21</v>
+      <c r="E95" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>118</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
         <v>2</v>
-      </c>
-      <c r="C96" t="s">
-        <v>26</v>
       </c>
       <c r="D96">
         <v>1E-3</v>
       </c>
-      <c r="E96">
-        <v>21</v>
+      <c r="E96" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>119</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
         <v>3</v>
       </c>
-      <c r="C97" t="s">
-        <v>26</v>
-      </c>
       <c r="D97">
         <v>1</v>
       </c>
-      <c r="E97">
-        <v>21</v>
+      <c r="E97" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>120</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
         <v>4</v>
-      </c>
-      <c r="C98" t="s">
-        <v>26</v>
       </c>
       <c r="D98">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E98">
-        <v>21</v>
+      <c r="E98" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>121</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
         <v>5</v>
-      </c>
-      <c r="C99" t="s">
-        <v>26</v>
       </c>
       <c r="D99">
         <v>37</v>
       </c>
-      <c r="E99">
-        <v>21</v>
+      <c r="E99" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>122</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
         <v>6</v>
-      </c>
-      <c r="C100" t="s">
-        <v>26</v>
       </c>
       <c r="D100">
         <v>37000</v>
       </c>
-      <c r="E100">
-        <v>21</v>
+      <c r="E100" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>124</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
         <v>12</v>
       </c>
-      <c r="C101" t="s">
-        <v>26</v>
-      </c>
       <c r="D101">
         <v>1</v>
       </c>
-      <c r="E101">
-        <v>21</v>
+      <c r="E101" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>125</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
         <v>13</v>
       </c>
-      <c r="C102" t="s">
-        <v>26</v>
-      </c>
       <c r="D102">
         <v>1000</v>
       </c>
-      <c r="E102">
-        <v>21</v>
+      <c r="E102" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>126</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
         <v>14</v>
       </c>
-      <c r="C103" t="s">
-        <v>26</v>
-      </c>
       <c r="D103">
         <v>1000</v>
       </c>
-      <c r="E103">
-        <v>21</v>
+      <c r="E103" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>127</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s">
         <v>15</v>
       </c>
-      <c r="C104" t="s">
-        <v>26</v>
-      </c>
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104">
-        <v>21</v>
+      <c r="E104" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>128</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105">
+        <v>21</v>
+      </c>
+      <c r="C105" t="s">
         <v>16</v>
       </c>
-      <c r="C105" t="s">
-        <v>26</v>
-      </c>
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="E105">
-        <v>21</v>
+      <c r="E105" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>129</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106">
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
         <v>17</v>
       </c>
-      <c r="C106" t="s">
-        <v>26</v>
-      </c>
       <c r="D106">
         <v>1000</v>
       </c>
-      <c r="E106">
-        <v>21</v>
+      <c r="E106" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>130</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
         <v>0</v>
       </c>
-      <c r="C107" t="s">
-        <v>26</v>
-      </c>
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="E107">
-        <v>22</v>
+      <c r="E107" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>131</v>
       </c>
-      <c r="B108" t="s">
-        <v>1</v>
+      <c r="B108">
+        <v>22</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>1000</v>
       </c>
-      <c r="E108">
-        <v>22</v>
+      <c r="E108" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>132</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109">
+        <v>22</v>
+      </c>
+      <c r="C109" t="s">
         <v>2</v>
-      </c>
-      <c r="C109" t="s">
-        <v>26</v>
       </c>
       <c r="D109">
         <v>1E-3</v>
       </c>
-      <c r="E109">
-        <v>22</v>
+      <c r="E109" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>133</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
         <v>3</v>
       </c>
-      <c r="C110" t="s">
-        <v>26</v>
-      </c>
       <c r="D110">
         <v>1</v>
       </c>
-      <c r="E110">
-        <v>22</v>
+      <c r="E110" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>134</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
         <v>4</v>
-      </c>
-      <c r="C111" t="s">
-        <v>26</v>
       </c>
       <c r="D111">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E111">
-        <v>22</v>
+      <c r="E111" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>135</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
         <v>5</v>
-      </c>
-      <c r="C112" t="s">
-        <v>26</v>
       </c>
       <c r="D112">
         <v>37</v>
       </c>
-      <c r="E112">
-        <v>22</v>
+      <c r="E112" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>136</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113">
+        <v>22</v>
+      </c>
+      <c r="C113" t="s">
         <v>6</v>
-      </c>
-      <c r="C113" t="s">
-        <v>26</v>
       </c>
       <c r="D113">
         <v>37000</v>
       </c>
-      <c r="E113">
-        <v>22</v>
+      <c r="E113" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>138</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
         <v>12</v>
       </c>
-      <c r="C114" t="s">
-        <v>26</v>
-      </c>
       <c r="D114">
         <v>1</v>
       </c>
-      <c r="E114">
-        <v>22</v>
+      <c r="E114" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>139</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
         <v>13</v>
       </c>
-      <c r="C115" t="s">
-        <v>26</v>
-      </c>
       <c r="D115">
         <v>1000</v>
       </c>
-      <c r="E115">
-        <v>22</v>
+      <c r="E115" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>140</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
         <v>14</v>
       </c>
-      <c r="C116" t="s">
-        <v>26</v>
-      </c>
       <c r="D116">
         <v>1000</v>
       </c>
-      <c r="E116">
-        <v>22</v>
+      <c r="E116" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>141</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
         <v>15</v>
       </c>
-      <c r="C117" t="s">
-        <v>26</v>
-      </c>
       <c r="D117">
         <v>1</v>
       </c>
-      <c r="E117">
-        <v>22</v>
+      <c r="E117" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>142</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
         <v>16</v>
       </c>
-      <c r="C118" t="s">
-        <v>26</v>
-      </c>
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="E118">
-        <v>22</v>
+      <c r="E118" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>143</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
         <v>17</v>
       </c>
-      <c r="C119" t="s">
-        <v>26</v>
-      </c>
       <c r="D119">
         <v>1000</v>
       </c>
-      <c r="E119">
-        <v>22</v>
+      <c r="E119" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>144</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120">
+        <v>41</v>
+      </c>
+      <c r="C120" t="s">
         <v>7</v>
       </c>
-      <c r="C120" t="s">
-        <v>26</v>
-      </c>
       <c r="D120">
         <v>1</v>
       </c>
-      <c r="E120">
-        <v>41</v>
+      <c r="E120" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>145</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121">
+        <v>45</v>
+      </c>
+      <c r="C121" t="s">
         <v>7</v>
       </c>
-      <c r="C121" t="s">
-        <v>26</v>
-      </c>
       <c r="D121">
         <v>1</v>
       </c>
-      <c r="E121">
-        <v>45</v>
+      <c r="E121" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>146</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122">
+        <v>49</v>
+      </c>
+      <c r="C122" t="s">
         <v>7</v>
       </c>
-      <c r="C122" t="s">
-        <v>26</v>
-      </c>
       <c r="D122">
         <v>1</v>
       </c>
-      <c r="E122">
-        <v>49</v>
+      <c r="E122" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>147</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123">
+        <v>53</v>
+      </c>
+      <c r="C123" t="s">
         <v>7</v>
       </c>
-      <c r="C123" t="s">
-        <v>26</v>
-      </c>
       <c r="D123">
         <v>1</v>
       </c>
-      <c r="E123">
-        <v>53</v>
+      <c r="E123" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>149</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124">
+        <v>57</v>
+      </c>
+      <c r="C124" t="s">
         <v>7</v>
       </c>
-      <c r="C124" t="s">
-        <v>26</v>
-      </c>
       <c r="D124">
         <v>1</v>
       </c>
-      <c r="E124">
-        <v>57</v>
+      <c r="E124" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>150</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
         <v>7</v>
-      </c>
-      <c r="C125" t="s">
-        <v>26</v>
       </c>
       <c r="D125">
         <v>1E-3</v>
       </c>
-      <c r="E125">
-        <v>3</v>
+      <c r="E125" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>151</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
         <v>7</v>
-      </c>
-      <c r="C126" t="s">
-        <v>26</v>
       </c>
       <c r="D126">
         <v>1E-3</v>
       </c>
-      <c r="E126">
-        <v>9</v>
+      <c r="E126" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>152</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
         <v>7</v>
-      </c>
-      <c r="C127" t="s">
-        <v>26</v>
       </c>
       <c r="D127">
         <v>1E-3</v>
       </c>
-      <c r="E127">
-        <v>10</v>
+      <c r="E127" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>153</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
         <v>8</v>
       </c>
-      <c r="C128" t="s">
-        <v>26</v>
-      </c>
       <c r="D128">
         <v>1</v>
       </c>
-      <c r="E128">
-        <v>32</v>
+      <c r="E128" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>154</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
         <v>9</v>
-      </c>
-      <c r="C129" t="s">
-        <v>26</v>
       </c>
       <c r="D129">
         <v>1E-3</v>
       </c>
-      <c r="E129">
-        <v>32</v>
+      <c r="E129" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>155</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130">
+        <v>32</v>
+      </c>
+      <c r="C130" t="s">
         <v>10</v>
-      </c>
-      <c r="C130" t="s">
-        <v>26</v>
       </c>
       <c r="D130">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E130">
-        <v>32</v>
+      <c r="E130" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>156</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131">
+        <v>32</v>
+      </c>
+      <c r="C131" t="s">
         <v>11</v>
-      </c>
-      <c r="C131" t="s">
-        <v>26</v>
       </c>
       <c r="D131">
         <v>37000</v>
       </c>
-      <c r="E131">
-        <v>32</v>
+      <c r="E131" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>157</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132">
+        <v>32</v>
+      </c>
+      <c r="C132" t="s">
         <v>12</v>
       </c>
-      <c r="C132" t="s">
-        <v>26</v>
-      </c>
       <c r="D132">
         <v>1</v>
       </c>
-      <c r="E132">
-        <v>32</v>
+      <c r="E132" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>158</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133">
+        <v>32</v>
+      </c>
+      <c r="C133" t="s">
         <v>13</v>
       </c>
-      <c r="C133" t="s">
-        <v>26</v>
-      </c>
       <c r="D133">
         <v>1000</v>
       </c>
-      <c r="E133">
-        <v>32</v>
+      <c r="E133" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>159</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134">
+        <v>32</v>
+      </c>
+      <c r="C134" t="s">
         <v>18</v>
       </c>
-      <c r="C134" t="s">
-        <v>26</v>
-      </c>
       <c r="D134">
         <v>1000</v>
       </c>
-      <c r="E134">
-        <v>32</v>
+      <c r="E134" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>160</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135">
+        <v>32</v>
+      </c>
+      <c r="C135" t="s">
         <v>19</v>
       </c>
-      <c r="C135" t="s">
-        <v>26</v>
-      </c>
       <c r="D135">
         <v>1</v>
       </c>
-      <c r="E135">
-        <v>32</v>
+      <c r="E135" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>161</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136">
+        <v>32</v>
+      </c>
+      <c r="C136" t="s">
         <v>7</v>
-      </c>
-      <c r="C136" t="s">
-        <v>26</v>
       </c>
       <c r="D136">
         <v>1E-3</v>
       </c>
-      <c r="E136">
-        <v>32</v>
+      <c r="E136" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>162</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137">
+        <v>35</v>
+      </c>
+      <c r="C137" t="s">
         <v>8</v>
       </c>
-      <c r="C137" t="s">
-        <v>26</v>
-      </c>
       <c r="D137">
         <v>1</v>
       </c>
-      <c r="E137">
-        <v>35</v>
+      <c r="E137" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>163</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138">
+        <v>35</v>
+      </c>
+      <c r="C138" t="s">
         <v>9</v>
-      </c>
-      <c r="C138" t="s">
-        <v>26</v>
       </c>
       <c r="D138">
         <v>1E-3</v>
       </c>
-      <c r="E138">
-        <v>35</v>
+      <c r="E138" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>164</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139">
+        <v>35</v>
+      </c>
+      <c r="C139" t="s">
         <v>10</v>
-      </c>
-      <c r="C139" t="s">
-        <v>26</v>
       </c>
       <c r="D139">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E139">
-        <v>35</v>
+      <c r="E139" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>165</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140">
+        <v>35</v>
+      </c>
+      <c r="C140" t="s">
         <v>11</v>
-      </c>
-      <c r="C140" t="s">
-        <v>26</v>
       </c>
       <c r="D140">
         <v>37000</v>
       </c>
-      <c r="E140">
-        <v>35</v>
+      <c r="E140" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>166</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141">
+        <v>35</v>
+      </c>
+      <c r="C141" t="s">
         <v>12</v>
       </c>
-      <c r="C141" t="s">
-        <v>26</v>
-      </c>
       <c r="D141">
         <v>1</v>
       </c>
-      <c r="E141">
-        <v>35</v>
+      <c r="E141" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>167</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142">
+        <v>35</v>
+      </c>
+      <c r="C142" t="s">
         <v>13</v>
       </c>
-      <c r="C142" t="s">
-        <v>26</v>
-      </c>
       <c r="D142">
         <v>1000</v>
       </c>
-      <c r="E142">
-        <v>35</v>
+      <c r="E142" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>168</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143">
+        <v>35</v>
+      </c>
+      <c r="C143" t="s">
         <v>18</v>
       </c>
-      <c r="C143" t="s">
-        <v>26</v>
-      </c>
       <c r="D143">
         <v>1000</v>
       </c>
-      <c r="E143">
-        <v>35</v>
+      <c r="E143" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>169</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144">
+        <v>35</v>
+      </c>
+      <c r="C144" t="s">
         <v>19</v>
       </c>
-      <c r="C144" t="s">
-        <v>26</v>
-      </c>
       <c r="D144">
         <v>1</v>
       </c>
-      <c r="E144">
-        <v>35</v>
+      <c r="E144" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>170</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145">
+        <v>35</v>
+      </c>
+      <c r="C145" t="s">
         <v>7</v>
-      </c>
-      <c r="C145" t="s">
-        <v>26</v>
       </c>
       <c r="D145">
         <v>1E-3</v>
       </c>
-      <c r="E145">
-        <v>35</v>
+      <c r="E145" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>171</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146">
+        <v>26</v>
+      </c>
+      <c r="C146" t="s">
         <v>8</v>
       </c>
-      <c r="C146" t="s">
-        <v>26</v>
-      </c>
       <c r="D146">
         <v>1</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2944,16 +2944,16 @@
       <c r="A147">
         <v>172</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147">
+        <v>26</v>
+      </c>
+      <c r="C147" t="s">
         <v>9</v>
-      </c>
-      <c r="C147" t="s">
-        <v>26</v>
       </c>
       <c r="D147">
         <v>1E-3</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2961,16 +2961,16 @@
       <c r="A148">
         <v>173</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148">
+        <v>26</v>
+      </c>
+      <c r="C148" t="s">
         <v>10</v>
-      </c>
-      <c r="C148" t="s">
-        <v>26</v>
       </c>
       <c r="D148">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2978,16 +2978,16 @@
       <c r="A149">
         <v>174</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149">
+        <v>26</v>
+      </c>
+      <c r="C149" t="s">
         <v>11</v>
-      </c>
-      <c r="C149" t="s">
-        <v>26</v>
       </c>
       <c r="D149">
         <v>37000</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2995,16 +2995,16 @@
       <c r="A150">
         <v>175</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150">
+        <v>26</v>
+      </c>
+      <c r="C150" t="s">
         <v>12</v>
       </c>
-      <c r="C150" t="s">
-        <v>26</v>
-      </c>
       <c r="D150">
         <v>1</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3012,16 +3012,16 @@
       <c r="A151">
         <v>176</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151">
+        <v>26</v>
+      </c>
+      <c r="C151" t="s">
         <v>13</v>
       </c>
-      <c r="C151" t="s">
-        <v>26</v>
-      </c>
       <c r="D151">
         <v>1000</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3029,16 +3029,16 @@
       <c r="A152">
         <v>177</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152">
+        <v>26</v>
+      </c>
+      <c r="C152" t="s">
         <v>18</v>
       </c>
-      <c r="C152" t="s">
-        <v>26</v>
-      </c>
       <c r="D152">
         <v>1000</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3046,16 +3046,16 @@
       <c r="A153">
         <v>178</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153">
+        <v>26</v>
+      </c>
+      <c r="C153" t="s">
         <v>19</v>
       </c>
-      <c r="C153" t="s">
-        <v>26</v>
-      </c>
       <c r="D153">
         <v>1</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3063,16 +3063,16 @@
       <c r="A154">
         <v>179</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154">
+        <v>26</v>
+      </c>
+      <c r="C154" t="s">
         <v>7</v>
-      </c>
-      <c r="C154" t="s">
-        <v>26</v>
       </c>
       <c r="D154">
         <v>1E-3</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3080,4012 +3080,4012 @@
       <c r="A155">
         <v>180</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155">
+        <v>29</v>
+      </c>
+      <c r="C155" t="s">
         <v>8</v>
       </c>
-      <c r="C155" t="s">
-        <v>26</v>
-      </c>
       <c r="D155">
         <v>1</v>
       </c>
-      <c r="E155">
-        <v>29</v>
+      <c r="E155" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>181</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156">
+        <v>29</v>
+      </c>
+      <c r="C156" t="s">
         <v>9</v>
-      </c>
-      <c r="C156" t="s">
-        <v>26</v>
       </c>
       <c r="D156">
         <v>1E-3</v>
       </c>
-      <c r="E156">
-        <v>29</v>
+      <c r="E156" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>182</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157">
+        <v>29</v>
+      </c>
+      <c r="C157" t="s">
         <v>10</v>
-      </c>
-      <c r="C157" t="s">
-        <v>26</v>
       </c>
       <c r="D157">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E157">
-        <v>29</v>
+      <c r="E157" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>183</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158">
+        <v>29</v>
+      </c>
+      <c r="C158" t="s">
         <v>11</v>
-      </c>
-      <c r="C158" t="s">
-        <v>26</v>
       </c>
       <c r="D158">
         <v>37000</v>
       </c>
-      <c r="E158">
-        <v>29</v>
+      <c r="E158" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>184</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159">
+        <v>29</v>
+      </c>
+      <c r="C159" t="s">
         <v>12</v>
       </c>
-      <c r="C159" t="s">
-        <v>26</v>
-      </c>
       <c r="D159">
         <v>1</v>
       </c>
-      <c r="E159">
-        <v>29</v>
+      <c r="E159" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>185</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160">
+        <v>29</v>
+      </c>
+      <c r="C160" t="s">
         <v>13</v>
       </c>
-      <c r="C160" t="s">
-        <v>26</v>
-      </c>
       <c r="D160">
         <v>1000</v>
       </c>
-      <c r="E160">
-        <v>29</v>
+      <c r="E160" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>186</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161">
+        <v>29</v>
+      </c>
+      <c r="C161" t="s">
         <v>18</v>
       </c>
-      <c r="C161" t="s">
-        <v>26</v>
-      </c>
       <c r="D161">
         <v>1000</v>
       </c>
-      <c r="E161">
-        <v>29</v>
+      <c r="E161" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>187</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162">
+        <v>29</v>
+      </c>
+      <c r="C162" t="s">
         <v>19</v>
       </c>
-      <c r="C162" t="s">
-        <v>26</v>
-      </c>
       <c r="D162">
         <v>1</v>
       </c>
-      <c r="E162">
-        <v>29</v>
+      <c r="E162" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>188</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163">
+        <v>29</v>
+      </c>
+      <c r="C163" t="s">
         <v>7</v>
-      </c>
-      <c r="C163" t="s">
-        <v>26</v>
       </c>
       <c r="D163">
         <v>1E-3</v>
       </c>
-      <c r="E163">
-        <v>29</v>
+      <c r="E163" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>189</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164">
+        <v>24</v>
+      </c>
+      <c r="C164" t="s">
         <v>0</v>
       </c>
-      <c r="C164" t="s">
-        <v>26</v>
-      </c>
       <c r="D164">
         <v>1</v>
       </c>
-      <c r="E164">
-        <v>24</v>
+      <c r="E164" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>190</v>
       </c>
-      <c r="B165" t="s">
-        <v>1</v>
+      <c r="B165">
+        <v>24</v>
       </c>
       <c r="C165" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D165">
         <v>1000</v>
       </c>
-      <c r="E165">
-        <v>24</v>
+      <c r="E165" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>191</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166">
+        <v>24</v>
+      </c>
+      <c r="C166" t="s">
         <v>2</v>
-      </c>
-      <c r="C166" t="s">
-        <v>26</v>
       </c>
       <c r="D166">
         <v>1E-3</v>
       </c>
-      <c r="E166">
-        <v>24</v>
+      <c r="E166" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>192</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167">
+        <v>24</v>
+      </c>
+      <c r="C167" t="s">
         <v>3</v>
       </c>
-      <c r="C167" t="s">
-        <v>26</v>
-      </c>
       <c r="D167">
         <v>1</v>
       </c>
-      <c r="E167">
-        <v>24</v>
+      <c r="E167" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>193</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168">
+        <v>24</v>
+      </c>
+      <c r="C168" t="s">
         <v>4</v>
-      </c>
-      <c r="C168" t="s">
-        <v>26</v>
       </c>
       <c r="D168">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E168">
-        <v>24</v>
+      <c r="E168" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>194</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169">
+        <v>24</v>
+      </c>
+      <c r="C169" t="s">
         <v>5</v>
-      </c>
-      <c r="C169" t="s">
-        <v>26</v>
       </c>
       <c r="D169">
         <v>37</v>
       </c>
-      <c r="E169">
-        <v>24</v>
+      <c r="E169" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>195</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170">
+        <v>24</v>
+      </c>
+      <c r="C170" t="s">
         <v>6</v>
-      </c>
-      <c r="C170" t="s">
-        <v>26</v>
       </c>
       <c r="D170">
         <v>37000</v>
       </c>
-      <c r="E170">
-        <v>24</v>
+      <c r="E170" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>196</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171">
+        <v>24</v>
+      </c>
+      <c r="C171" t="s">
         <v>12</v>
       </c>
-      <c r="C171" t="s">
-        <v>26</v>
-      </c>
       <c r="D171">
         <v>1</v>
       </c>
-      <c r="E171">
-        <v>24</v>
+      <c r="E171" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>197</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172">
+        <v>24</v>
+      </c>
+      <c r="C172" t="s">
         <v>13</v>
       </c>
-      <c r="C172" t="s">
-        <v>26</v>
-      </c>
       <c r="D172">
         <v>1000</v>
       </c>
-      <c r="E172">
-        <v>24</v>
+      <c r="E172" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>198</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173">
+        <v>24</v>
+      </c>
+      <c r="C173" t="s">
         <v>14</v>
       </c>
-      <c r="C173" t="s">
-        <v>26</v>
-      </c>
       <c r="D173">
         <v>1000</v>
       </c>
-      <c r="E173">
-        <v>24</v>
+      <c r="E173" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>199</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174">
+        <v>24</v>
+      </c>
+      <c r="C174" t="s">
         <v>15</v>
       </c>
-      <c r="C174" t="s">
-        <v>26</v>
-      </c>
       <c r="D174">
         <v>1</v>
       </c>
-      <c r="E174">
-        <v>24</v>
+      <c r="E174" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>200</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175">
+        <v>24</v>
+      </c>
+      <c r="C175" t="s">
         <v>16</v>
       </c>
-      <c r="C175" t="s">
-        <v>26</v>
-      </c>
       <c r="D175">
         <v>1</v>
       </c>
-      <c r="E175">
-        <v>24</v>
+      <c r="E175" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>201</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176">
+        <v>24</v>
+      </c>
+      <c r="C176" t="s">
         <v>17</v>
       </c>
-      <c r="C176" t="s">
-        <v>26</v>
-      </c>
       <c r="D176">
         <v>1000</v>
       </c>
-      <c r="E176">
-        <v>24</v>
+      <c r="E176" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>202</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177">
+        <v>25</v>
+      </c>
+      <c r="C177" t="s">
         <v>0</v>
       </c>
-      <c r="C177" t="s">
-        <v>26</v>
-      </c>
       <c r="D177">
         <v>1</v>
       </c>
-      <c r="E177">
-        <v>25</v>
+      <c r="E177" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>203</v>
       </c>
-      <c r="B178" t="s">
-        <v>1</v>
+      <c r="B178">
+        <v>25</v>
       </c>
       <c r="C178" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D178">
         <v>1000</v>
       </c>
-      <c r="E178">
-        <v>25</v>
+      <c r="E178" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>204</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179">
+        <v>25</v>
+      </c>
+      <c r="C179" t="s">
         <v>2</v>
-      </c>
-      <c r="C179" t="s">
-        <v>26</v>
       </c>
       <c r="D179">
         <v>1E-3</v>
       </c>
-      <c r="E179">
-        <v>25</v>
+      <c r="E179" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>205</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180">
+        <v>25</v>
+      </c>
+      <c r="C180" t="s">
         <v>3</v>
       </c>
-      <c r="C180" t="s">
-        <v>26</v>
-      </c>
       <c r="D180">
         <v>1</v>
       </c>
-      <c r="E180">
-        <v>25</v>
+      <c r="E180" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>206</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181">
+        <v>25</v>
+      </c>
+      <c r="C181" t="s">
         <v>4</v>
-      </c>
-      <c r="C181" t="s">
-        <v>26</v>
       </c>
       <c r="D181">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E181">
-        <v>25</v>
+      <c r="E181" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>207</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182">
+        <v>25</v>
+      </c>
+      <c r="C182" t="s">
         <v>5</v>
-      </c>
-      <c r="C182" t="s">
-        <v>26</v>
       </c>
       <c r="D182">
         <v>37</v>
       </c>
-      <c r="E182">
-        <v>25</v>
+      <c r="E182" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>208</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183">
+        <v>25</v>
+      </c>
+      <c r="C183" t="s">
         <v>6</v>
-      </c>
-      <c r="C183" t="s">
-        <v>26</v>
       </c>
       <c r="D183">
         <v>37000</v>
       </c>
-      <c r="E183">
-        <v>25</v>
+      <c r="E183" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>209</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184">
+        <v>25</v>
+      </c>
+      <c r="C184" t="s">
         <v>12</v>
       </c>
-      <c r="C184" t="s">
-        <v>26</v>
-      </c>
       <c r="D184">
         <v>1</v>
       </c>
-      <c r="E184">
-        <v>25</v>
+      <c r="E184" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>210</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185">
+        <v>25</v>
+      </c>
+      <c r="C185" t="s">
         <v>13</v>
       </c>
-      <c r="C185" t="s">
-        <v>26</v>
-      </c>
       <c r="D185">
         <v>1000</v>
       </c>
-      <c r="E185">
-        <v>25</v>
+      <c r="E185" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>211</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186">
+        <v>25</v>
+      </c>
+      <c r="C186" t="s">
         <v>14</v>
       </c>
-      <c r="C186" t="s">
-        <v>26</v>
-      </c>
       <c r="D186">
         <v>1000</v>
       </c>
-      <c r="E186">
-        <v>25</v>
+      <c r="E186" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>212</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187">
+        <v>25</v>
+      </c>
+      <c r="C187" t="s">
         <v>15</v>
       </c>
-      <c r="C187" t="s">
-        <v>26</v>
-      </c>
       <c r="D187">
         <v>1</v>
       </c>
-      <c r="E187">
-        <v>25</v>
+      <c r="E187" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>213</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188">
+        <v>25</v>
+      </c>
+      <c r="C188" t="s">
         <v>16</v>
       </c>
-      <c r="C188" t="s">
-        <v>26</v>
-      </c>
       <c r="D188">
         <v>1</v>
       </c>
-      <c r="E188">
-        <v>25</v>
+      <c r="E188" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>214</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189">
+        <v>25</v>
+      </c>
+      <c r="C189" t="s">
         <v>17</v>
       </c>
-      <c r="C189" t="s">
-        <v>26</v>
-      </c>
       <c r="D189">
         <v>1000</v>
       </c>
-      <c r="E189">
-        <v>25</v>
+      <c r="E189" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>215</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s">
         <v>0</v>
       </c>
-      <c r="C190" t="s">
-        <v>26</v>
-      </c>
       <c r="D190">
         <v>1</v>
       </c>
-      <c r="E190">
-        <v>7</v>
+      <c r="E190" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>216</v>
       </c>
-      <c r="B191" t="s">
-        <v>1</v>
+      <c r="B191">
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <v>1000</v>
       </c>
-      <c r="E191">
-        <v>7</v>
+      <c r="E191" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>217</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
         <v>2</v>
-      </c>
-      <c r="C192" t="s">
-        <v>26</v>
       </c>
       <c r="D192">
         <v>1E-3</v>
       </c>
-      <c r="E192">
-        <v>7</v>
+      <c r="E192" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>218</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193">
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
         <v>3</v>
       </c>
-      <c r="C193" t="s">
-        <v>26</v>
-      </c>
       <c r="D193">
         <v>1</v>
       </c>
-      <c r="E193">
-        <v>7</v>
+      <c r="E193" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>219</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194">
+        <v>7</v>
+      </c>
+      <c r="C194" t="s">
         <v>4</v>
-      </c>
-      <c r="C194" t="s">
-        <v>26</v>
       </c>
       <c r="D194">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E194">
-        <v>7</v>
+      <c r="E194" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>220</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195">
+        <v>7</v>
+      </c>
+      <c r="C195" t="s">
         <v>5</v>
-      </c>
-      <c r="C195" t="s">
-        <v>26</v>
       </c>
       <c r="D195">
         <v>37</v>
       </c>
-      <c r="E195">
-        <v>7</v>
+      <c r="E195" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>221</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196">
+        <v>7</v>
+      </c>
+      <c r="C196" t="s">
         <v>6</v>
-      </c>
-      <c r="C196" t="s">
-        <v>26</v>
       </c>
       <c r="D196">
         <v>37000</v>
       </c>
-      <c r="E196">
-        <v>7</v>
+      <c r="E196" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>222</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
         <v>20</v>
-      </c>
-      <c r="C197" t="s">
-        <v>26</v>
       </c>
       <c r="D197">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E197">
-        <v>7</v>
+      <c r="E197" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>223</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198">
+        <v>7</v>
+      </c>
+      <c r="C198" t="s">
         <v>12</v>
       </c>
-      <c r="C198" t="s">
-        <v>26</v>
-      </c>
       <c r="D198">
         <v>1</v>
       </c>
-      <c r="E198">
-        <v>7</v>
+      <c r="E198" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>224</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199">
+        <v>7</v>
+      </c>
+      <c r="C199" t="s">
         <v>13</v>
       </c>
-      <c r="C199" t="s">
-        <v>26</v>
-      </c>
       <c r="D199">
         <v>1000</v>
       </c>
-      <c r="E199">
-        <v>7</v>
+      <c r="E199" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>225</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
         <v>14</v>
       </c>
-      <c r="C200" t="s">
-        <v>26</v>
-      </c>
       <c r="D200">
         <v>1000</v>
       </c>
-      <c r="E200">
-        <v>7</v>
+      <c r="E200" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>226</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
         <v>15</v>
       </c>
-      <c r="C201" t="s">
-        <v>26</v>
-      </c>
       <c r="D201">
         <v>1</v>
       </c>
-      <c r="E201">
-        <v>7</v>
+      <c r="E201" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>227</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
         <v>16</v>
       </c>
-      <c r="C202" t="s">
-        <v>26</v>
-      </c>
       <c r="D202">
         <v>1</v>
       </c>
-      <c r="E202">
-        <v>7</v>
+      <c r="E202" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>228</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203">
+        <v>7</v>
+      </c>
+      <c r="C203" t="s">
         <v>17</v>
       </c>
-      <c r="C203" t="s">
-        <v>26</v>
-      </c>
       <c r="D203">
         <v>1000</v>
       </c>
-      <c r="E203">
-        <v>7</v>
+      <c r="E203" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>229</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204">
+        <v>55</v>
+      </c>
+      <c r="C204" t="s">
         <v>0</v>
       </c>
-      <c r="C204" t="s">
-        <v>26</v>
-      </c>
       <c r="D204">
         <v>1</v>
       </c>
-      <c r="E204">
-        <v>55</v>
+      <c r="E204" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>230</v>
       </c>
-      <c r="B205" t="s">
-        <v>1</v>
+      <c r="B205">
+        <v>55</v>
       </c>
       <c r="C205" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D205">
         <v>1000</v>
       </c>
-      <c r="E205">
-        <v>55</v>
+      <c r="E205" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>231</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206">
+        <v>55</v>
+      </c>
+      <c r="C206" t="s">
         <v>2</v>
-      </c>
-      <c r="C206" t="s">
-        <v>26</v>
       </c>
       <c r="D206">
         <v>1E-3</v>
       </c>
-      <c r="E206">
-        <v>55</v>
+      <c r="E206" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>232</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207">
+        <v>55</v>
+      </c>
+      <c r="C207" t="s">
         <v>3</v>
       </c>
-      <c r="C207" t="s">
-        <v>26</v>
-      </c>
       <c r="D207">
         <v>1</v>
       </c>
-      <c r="E207">
-        <v>55</v>
+      <c r="E207" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>233</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208">
+        <v>55</v>
+      </c>
+      <c r="C208" t="s">
         <v>4</v>
-      </c>
-      <c r="C208" t="s">
-        <v>26</v>
       </c>
       <c r="D208">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E208">
-        <v>55</v>
+      <c r="E208" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>234</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209">
+        <v>55</v>
+      </c>
+      <c r="C209" t="s">
         <v>5</v>
-      </c>
-      <c r="C209" t="s">
-        <v>26</v>
       </c>
       <c r="D209">
         <v>37</v>
       </c>
-      <c r="E209">
-        <v>55</v>
+      <c r="E209" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>235</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210">
+        <v>55</v>
+      </c>
+      <c r="C210" t="s">
         <v>6</v>
-      </c>
-      <c r="C210" t="s">
-        <v>26</v>
       </c>
       <c r="D210">
         <v>37000</v>
       </c>
-      <c r="E210">
-        <v>55</v>
+      <c r="E210" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>236</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211">
+        <v>55</v>
+      </c>
+      <c r="C211" t="s">
         <v>20</v>
-      </c>
-      <c r="C211" t="s">
-        <v>26</v>
       </c>
       <c r="D211">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E211">
-        <v>55</v>
+      <c r="E211" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>237</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212">
+        <v>55</v>
+      </c>
+      <c r="C212" t="s">
         <v>12</v>
       </c>
-      <c r="C212" t="s">
-        <v>26</v>
-      </c>
       <c r="D212">
         <v>1</v>
       </c>
-      <c r="E212">
-        <v>55</v>
+      <c r="E212" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>238</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213">
+        <v>55</v>
+      </c>
+      <c r="C213" t="s">
         <v>13</v>
       </c>
-      <c r="C213" t="s">
-        <v>26</v>
-      </c>
       <c r="D213">
         <v>1000</v>
       </c>
-      <c r="E213">
-        <v>55</v>
+      <c r="E213" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>239</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214">
+        <v>55</v>
+      </c>
+      <c r="C214" t="s">
         <v>14</v>
       </c>
-      <c r="C214" t="s">
-        <v>26</v>
-      </c>
       <c r="D214">
         <v>1000</v>
       </c>
-      <c r="E214">
-        <v>55</v>
+      <c r="E214" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>240</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215">
+        <v>55</v>
+      </c>
+      <c r="C215" t="s">
         <v>15</v>
       </c>
-      <c r="C215" t="s">
-        <v>26</v>
-      </c>
       <c r="D215">
         <v>1</v>
       </c>
-      <c r="E215">
-        <v>55</v>
+      <c r="E215" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>241</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216">
+        <v>55</v>
+      </c>
+      <c r="C216" t="s">
         <v>16</v>
       </c>
-      <c r="C216" t="s">
-        <v>26</v>
-      </c>
       <c r="D216">
         <v>1</v>
       </c>
-      <c r="E216">
-        <v>55</v>
+      <c r="E216" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>242</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217">
+        <v>55</v>
+      </c>
+      <c r="C217" t="s">
         <v>17</v>
       </c>
-      <c r="C217" t="s">
-        <v>26</v>
-      </c>
       <c r="D217">
         <v>1000</v>
       </c>
-      <c r="E217">
-        <v>55</v>
+      <c r="E217" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>243</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218">
+        <v>51</v>
+      </c>
+      <c r="C218" t="s">
         <v>0</v>
       </c>
-      <c r="C218" t="s">
-        <v>26</v>
-      </c>
       <c r="D218">
         <v>1</v>
       </c>
-      <c r="E218">
-        <v>51</v>
+      <c r="E218" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>244</v>
       </c>
-      <c r="B219" t="s">
-        <v>1</v>
+      <c r="B219">
+        <v>51</v>
       </c>
       <c r="C219" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D219">
         <v>1000</v>
       </c>
-      <c r="E219">
-        <v>51</v>
+      <c r="E219" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>245</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220">
+        <v>51</v>
+      </c>
+      <c r="C220" t="s">
         <v>2</v>
-      </c>
-      <c r="C220" t="s">
-        <v>26</v>
       </c>
       <c r="D220">
         <v>1E-3</v>
       </c>
-      <c r="E220">
-        <v>51</v>
+      <c r="E220" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>246</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221">
+        <v>51</v>
+      </c>
+      <c r="C221" t="s">
         <v>3</v>
       </c>
-      <c r="C221" t="s">
-        <v>26</v>
-      </c>
       <c r="D221">
         <v>1</v>
       </c>
-      <c r="E221">
-        <v>51</v>
+      <c r="E221" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>247</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222">
+        <v>51</v>
+      </c>
+      <c r="C222" t="s">
         <v>4</v>
-      </c>
-      <c r="C222" t="s">
-        <v>26</v>
       </c>
       <c r="D222">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E222">
-        <v>51</v>
+      <c r="E222" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>248</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223">
+        <v>51</v>
+      </c>
+      <c r="C223" t="s">
         <v>5</v>
-      </c>
-      <c r="C223" t="s">
-        <v>26</v>
       </c>
       <c r="D223">
         <v>37</v>
       </c>
-      <c r="E223">
-        <v>51</v>
+      <c r="E223" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>249</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224">
+        <v>51</v>
+      </c>
+      <c r="C224" t="s">
         <v>6</v>
-      </c>
-      <c r="C224" t="s">
-        <v>26</v>
       </c>
       <c r="D224">
         <v>37000</v>
       </c>
-      <c r="E224">
-        <v>51</v>
+      <c r="E224" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>250</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225">
+        <v>51</v>
+      </c>
+      <c r="C225" t="s">
         <v>20</v>
-      </c>
-      <c r="C225" t="s">
-        <v>26</v>
       </c>
       <c r="D225">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E225">
-        <v>51</v>
+      <c r="E225" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>251</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226">
+        <v>51</v>
+      </c>
+      <c r="C226" t="s">
         <v>12</v>
       </c>
-      <c r="C226" t="s">
-        <v>26</v>
-      </c>
       <c r="D226">
         <v>1</v>
       </c>
-      <c r="E226">
-        <v>51</v>
+      <c r="E226" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>252</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227">
+        <v>51</v>
+      </c>
+      <c r="C227" t="s">
         <v>13</v>
       </c>
-      <c r="C227" t="s">
-        <v>26</v>
-      </c>
       <c r="D227">
         <v>1000</v>
       </c>
-      <c r="E227">
-        <v>51</v>
+      <c r="E227" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>253</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228">
+        <v>51</v>
+      </c>
+      <c r="C228" t="s">
         <v>14</v>
       </c>
-      <c r="C228" t="s">
-        <v>26</v>
-      </c>
       <c r="D228">
         <v>1000</v>
       </c>
-      <c r="E228">
-        <v>51</v>
+      <c r="E228" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>254</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229">
+        <v>51</v>
+      </c>
+      <c r="C229" t="s">
         <v>15</v>
       </c>
-      <c r="C229" t="s">
-        <v>26</v>
-      </c>
       <c r="D229">
         <v>1</v>
       </c>
-      <c r="E229">
-        <v>51</v>
+      <c r="E229" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>255</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230">
+        <v>51</v>
+      </c>
+      <c r="C230" t="s">
         <v>16</v>
       </c>
-      <c r="C230" t="s">
-        <v>26</v>
-      </c>
       <c r="D230">
         <v>1</v>
       </c>
-      <c r="E230">
-        <v>51</v>
+      <c r="E230" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>256</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231">
+        <v>51</v>
+      </c>
+      <c r="C231" t="s">
         <v>17</v>
       </c>
-      <c r="C231" t="s">
-        <v>26</v>
-      </c>
       <c r="D231">
         <v>1000</v>
       </c>
-      <c r="E231">
-        <v>51</v>
+      <c r="E231" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>257</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232">
+        <v>43</v>
+      </c>
+      <c r="C232" t="s">
         <v>0</v>
       </c>
-      <c r="C232" t="s">
-        <v>26</v>
-      </c>
       <c r="D232">
         <v>1</v>
       </c>
-      <c r="E232">
-        <v>43</v>
+      <c r="E232" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>258</v>
       </c>
-      <c r="B233" t="s">
-        <v>1</v>
+      <c r="B233">
+        <v>43</v>
       </c>
       <c r="C233" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D233">
         <v>1000</v>
       </c>
-      <c r="E233">
-        <v>43</v>
+      <c r="E233" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>259</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234">
+        <v>43</v>
+      </c>
+      <c r="C234" t="s">
         <v>2</v>
-      </c>
-      <c r="C234" t="s">
-        <v>26</v>
       </c>
       <c r="D234">
         <v>1E-3</v>
       </c>
-      <c r="E234">
-        <v>43</v>
+      <c r="E234" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>260</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235">
+        <v>43</v>
+      </c>
+      <c r="C235" t="s">
         <v>3</v>
       </c>
-      <c r="C235" t="s">
-        <v>26</v>
-      </c>
       <c r="D235">
         <v>1</v>
       </c>
-      <c r="E235">
-        <v>43</v>
+      <c r="E235" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>261</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236">
+        <v>43</v>
+      </c>
+      <c r="C236" t="s">
         <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>26</v>
       </c>
       <c r="D236">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E236">
-        <v>43</v>
+      <c r="E236" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>262</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237">
+        <v>43</v>
+      </c>
+      <c r="C237" t="s">
         <v>5</v>
-      </c>
-      <c r="C237" t="s">
-        <v>26</v>
       </c>
       <c r="D237">
         <v>37</v>
       </c>
-      <c r="E237">
-        <v>43</v>
+      <c r="E237" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>263</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238">
+        <v>43</v>
+      </c>
+      <c r="C238" t="s">
         <v>6</v>
-      </c>
-      <c r="C238" t="s">
-        <v>26</v>
       </c>
       <c r="D238">
         <v>37000</v>
       </c>
-      <c r="E238">
-        <v>43</v>
+      <c r="E238" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>264</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239">
+        <v>43</v>
+      </c>
+      <c r="C239" t="s">
         <v>20</v>
-      </c>
-      <c r="C239" t="s">
-        <v>26</v>
       </c>
       <c r="D239">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E239">
-        <v>43</v>
+      <c r="E239" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>265</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240">
+        <v>43</v>
+      </c>
+      <c r="C240" t="s">
         <v>12</v>
       </c>
-      <c r="C240" t="s">
-        <v>26</v>
-      </c>
       <c r="D240">
         <v>1</v>
       </c>
-      <c r="E240">
-        <v>43</v>
+      <c r="E240" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>266</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241">
+        <v>43</v>
+      </c>
+      <c r="C241" t="s">
         <v>13</v>
       </c>
-      <c r="C241" t="s">
-        <v>26</v>
-      </c>
       <c r="D241">
         <v>1000</v>
       </c>
-      <c r="E241">
-        <v>43</v>
+      <c r="E241" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>267</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242">
+        <v>43</v>
+      </c>
+      <c r="C242" t="s">
         <v>14</v>
       </c>
-      <c r="C242" t="s">
-        <v>26</v>
-      </c>
       <c r="D242">
         <v>1000</v>
       </c>
-      <c r="E242">
-        <v>43</v>
+      <c r="E242" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>268</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243">
+        <v>43</v>
+      </c>
+      <c r="C243" t="s">
         <v>15</v>
       </c>
-      <c r="C243" t="s">
-        <v>26</v>
-      </c>
       <c r="D243">
         <v>1</v>
       </c>
-      <c r="E243">
-        <v>43</v>
+      <c r="E243" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>269</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244">
+        <v>43</v>
+      </c>
+      <c r="C244" t="s">
         <v>16</v>
       </c>
-      <c r="C244" t="s">
-        <v>26</v>
-      </c>
       <c r="D244">
         <v>1</v>
       </c>
-      <c r="E244">
-        <v>43</v>
+      <c r="E244" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>270</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245">
+        <v>43</v>
+      </c>
+      <c r="C245" t="s">
         <v>17</v>
       </c>
-      <c r="C245" t="s">
-        <v>26</v>
-      </c>
       <c r="D245">
         <v>1000</v>
       </c>
-      <c r="E245">
-        <v>43</v>
+      <c r="E245" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>271</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246">
+        <v>39</v>
+      </c>
+      <c r="C246" t="s">
         <v>0</v>
       </c>
-      <c r="C246" t="s">
-        <v>26</v>
-      </c>
       <c r="D246">
         <v>1</v>
       </c>
-      <c r="E246">
-        <v>39</v>
+      <c r="E246" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>272</v>
       </c>
-      <c r="B247" t="s">
-        <v>1</v>
+      <c r="B247">
+        <v>39</v>
       </c>
       <c r="C247" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D247">
         <v>1000</v>
       </c>
-      <c r="E247">
-        <v>39</v>
+      <c r="E247" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>273</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248">
+        <v>39</v>
+      </c>
+      <c r="C248" t="s">
         <v>2</v>
-      </c>
-      <c r="C248" t="s">
-        <v>26</v>
       </c>
       <c r="D248">
         <v>1E-3</v>
       </c>
-      <c r="E248">
-        <v>39</v>
+      <c r="E248" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>274</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249">
+        <v>39</v>
+      </c>
+      <c r="C249" t="s">
         <v>3</v>
       </c>
-      <c r="C249" t="s">
-        <v>26</v>
-      </c>
       <c r="D249">
         <v>1</v>
       </c>
-      <c r="E249">
-        <v>39</v>
+      <c r="E249" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>275</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250">
+        <v>39</v>
+      </c>
+      <c r="C250" t="s">
         <v>4</v>
-      </c>
-      <c r="C250" t="s">
-        <v>26</v>
       </c>
       <c r="D250">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E250">
-        <v>39</v>
+      <c r="E250" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>276</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251">
+        <v>39</v>
+      </c>
+      <c r="C251" t="s">
         <v>5</v>
-      </c>
-      <c r="C251" t="s">
-        <v>26</v>
       </c>
       <c r="D251">
         <v>37</v>
       </c>
-      <c r="E251">
-        <v>39</v>
+      <c r="E251" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>277</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252">
+        <v>39</v>
+      </c>
+      <c r="C252" t="s">
         <v>6</v>
-      </c>
-      <c r="C252" t="s">
-        <v>26</v>
       </c>
       <c r="D252">
         <v>37000</v>
       </c>
-      <c r="E252">
-        <v>39</v>
+      <c r="E252" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>278</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253">
+        <v>39</v>
+      </c>
+      <c r="C253" t="s">
         <v>20</v>
-      </c>
-      <c r="C253" t="s">
-        <v>26</v>
       </c>
       <c r="D253">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E253">
-        <v>39</v>
+      <c r="E253" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>279</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254">
+        <v>39</v>
+      </c>
+      <c r="C254" t="s">
         <v>12</v>
       </c>
-      <c r="C254" t="s">
-        <v>26</v>
-      </c>
       <c r="D254">
         <v>1</v>
       </c>
-      <c r="E254">
-        <v>39</v>
+      <c r="E254" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>280</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255">
+        <v>39</v>
+      </c>
+      <c r="C255" t="s">
         <v>13</v>
       </c>
-      <c r="C255" t="s">
-        <v>26</v>
-      </c>
       <c r="D255">
         <v>1000</v>
       </c>
-      <c r="E255">
-        <v>39</v>
+      <c r="E255" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>281</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256">
+        <v>39</v>
+      </c>
+      <c r="C256" t="s">
         <v>14</v>
       </c>
-      <c r="C256" t="s">
-        <v>26</v>
-      </c>
       <c r="D256">
         <v>1000</v>
       </c>
-      <c r="E256">
-        <v>39</v>
+      <c r="E256" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>282</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257">
+        <v>39</v>
+      </c>
+      <c r="C257" t="s">
         <v>15</v>
       </c>
-      <c r="C257" t="s">
-        <v>26</v>
-      </c>
       <c r="D257">
         <v>1</v>
       </c>
-      <c r="E257">
-        <v>39</v>
+      <c r="E257" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>283</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258">
+        <v>39</v>
+      </c>
+      <c r="C258" t="s">
         <v>16</v>
       </c>
-      <c r="C258" t="s">
-        <v>26</v>
-      </c>
       <c r="D258">
         <v>1</v>
       </c>
-      <c r="E258">
-        <v>39</v>
+      <c r="E258" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>284</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259">
+        <v>39</v>
+      </c>
+      <c r="C259" t="s">
         <v>17</v>
       </c>
-      <c r="C259" t="s">
-        <v>26</v>
-      </c>
       <c r="D259">
         <v>1000</v>
       </c>
-      <c r="E259">
-        <v>39</v>
+      <c r="E259" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>285</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260">
+        <v>47</v>
+      </c>
+      <c r="C260" t="s">
         <v>0</v>
       </c>
-      <c r="C260" t="s">
-        <v>26</v>
-      </c>
       <c r="D260">
         <v>1</v>
       </c>
-      <c r="E260">
-        <v>47</v>
+      <c r="E260" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>286</v>
       </c>
-      <c r="B261" t="s">
-        <v>1</v>
+      <c r="B261">
+        <v>47</v>
       </c>
       <c r="C261" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D261">
         <v>1000</v>
       </c>
-      <c r="E261">
-        <v>47</v>
+      <c r="E261" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>287</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262">
+        <v>47</v>
+      </c>
+      <c r="C262" t="s">
         <v>2</v>
-      </c>
-      <c r="C262" t="s">
-        <v>26</v>
       </c>
       <c r="D262">
         <v>1E-3</v>
       </c>
-      <c r="E262">
-        <v>47</v>
+      <c r="E262" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>288</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263">
+        <v>47</v>
+      </c>
+      <c r="C263" t="s">
         <v>3</v>
       </c>
-      <c r="C263" t="s">
-        <v>26</v>
-      </c>
       <c r="D263">
         <v>1</v>
       </c>
-      <c r="E263">
-        <v>47</v>
+      <c r="E263" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>289</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264">
+        <v>47</v>
+      </c>
+      <c r="C264" t="s">
         <v>4</v>
-      </c>
-      <c r="C264" t="s">
-        <v>26</v>
       </c>
       <c r="D264">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E264">
-        <v>47</v>
+      <c r="E264" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>290</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265">
+        <v>47</v>
+      </c>
+      <c r="C265" t="s">
         <v>5</v>
-      </c>
-      <c r="C265" t="s">
-        <v>26</v>
       </c>
       <c r="D265">
         <v>37</v>
       </c>
-      <c r="E265">
-        <v>47</v>
+      <c r="E265" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>291</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266">
+        <v>47</v>
+      </c>
+      <c r="C266" t="s">
         <v>6</v>
-      </c>
-      <c r="C266" t="s">
-        <v>26</v>
       </c>
       <c r="D266">
         <v>37000</v>
       </c>
-      <c r="E266">
-        <v>47</v>
+      <c r="E266" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>292</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267">
+        <v>47</v>
+      </c>
+      <c r="C267" t="s">
         <v>20</v>
-      </c>
-      <c r="C267" t="s">
-        <v>26</v>
       </c>
       <c r="D267">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E267">
-        <v>47</v>
+      <c r="E267" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>293</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268">
+        <v>47</v>
+      </c>
+      <c r="C268" t="s">
         <v>12</v>
       </c>
-      <c r="C268" t="s">
-        <v>26</v>
-      </c>
       <c r="D268">
         <v>1</v>
       </c>
-      <c r="E268">
-        <v>47</v>
+      <c r="E268" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>294</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269">
+        <v>47</v>
+      </c>
+      <c r="C269" t="s">
         <v>13</v>
       </c>
-      <c r="C269" t="s">
-        <v>26</v>
-      </c>
       <c r="D269">
         <v>1000</v>
       </c>
-      <c r="E269">
-        <v>47</v>
+      <c r="E269" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>295</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270">
+        <v>47</v>
+      </c>
+      <c r="C270" t="s">
         <v>14</v>
       </c>
-      <c r="C270" t="s">
-        <v>26</v>
-      </c>
       <c r="D270">
         <v>1000</v>
       </c>
-      <c r="E270">
-        <v>47</v>
+      <c r="E270" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>296</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271">
+        <v>47</v>
+      </c>
+      <c r="C271" t="s">
         <v>15</v>
       </c>
-      <c r="C271" t="s">
-        <v>26</v>
-      </c>
       <c r="D271">
         <v>1</v>
       </c>
-      <c r="E271">
-        <v>47</v>
+      <c r="E271" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>297</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272">
+        <v>47</v>
+      </c>
+      <c r="C272" t="s">
         <v>16</v>
       </c>
-      <c r="C272" t="s">
-        <v>26</v>
-      </c>
       <c r="D272">
         <v>1</v>
       </c>
-      <c r="E272">
-        <v>47</v>
+      <c r="E272" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>298</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273">
+        <v>47</v>
+      </c>
+      <c r="C273" t="s">
         <v>17</v>
       </c>
-      <c r="C273" t="s">
-        <v>26</v>
-      </c>
       <c r="D273">
         <v>1000</v>
       </c>
-      <c r="E273">
-        <v>47</v>
+      <c r="E273" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>299</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274">
+        <v>28</v>
+      </c>
+      <c r="C274" t="s">
         <v>0</v>
       </c>
-      <c r="C274" t="s">
-        <v>26</v>
-      </c>
       <c r="D274">
         <v>1</v>
       </c>
-      <c r="E274">
-        <v>28</v>
+      <c r="E274" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>300</v>
       </c>
-      <c r="B275" t="s">
-        <v>1</v>
+      <c r="B275">
+        <v>28</v>
       </c>
       <c r="C275" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D275">
         <v>1000</v>
       </c>
-      <c r="E275">
-        <v>28</v>
+      <c r="E275" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>301</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276">
+        <v>28</v>
+      </c>
+      <c r="C276" t="s">
         <v>2</v>
-      </c>
-      <c r="C276" t="s">
-        <v>26</v>
       </c>
       <c r="D276">
         <v>1E-3</v>
       </c>
-      <c r="E276">
-        <v>28</v>
+      <c r="E276" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>302</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277">
+        <v>28</v>
+      </c>
+      <c r="C277" t="s">
         <v>3</v>
       </c>
-      <c r="C277" t="s">
-        <v>26</v>
-      </c>
       <c r="D277">
         <v>1</v>
       </c>
-      <c r="E277">
-        <v>28</v>
+      <c r="E277" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>303</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278">
+        <v>28</v>
+      </c>
+      <c r="C278" t="s">
         <v>4</v>
-      </c>
-      <c r="C278" t="s">
-        <v>26</v>
       </c>
       <c r="D278">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E278">
-        <v>28</v>
+      <c r="E278" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>304</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279">
+        <v>28</v>
+      </c>
+      <c r="C279" t="s">
         <v>5</v>
-      </c>
-      <c r="C279" t="s">
-        <v>26</v>
       </c>
       <c r="D279">
         <v>37</v>
       </c>
-      <c r="E279">
-        <v>28</v>
+      <c r="E279" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>305</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280">
+        <v>28</v>
+      </c>
+      <c r="C280" t="s">
         <v>6</v>
-      </c>
-      <c r="C280" t="s">
-        <v>26</v>
       </c>
       <c r="D280">
         <v>37000</v>
       </c>
-      <c r="E280">
-        <v>28</v>
+      <c r="E280" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>306</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281">
+        <v>28</v>
+      </c>
+      <c r="C281" t="s">
         <v>12</v>
       </c>
-      <c r="C281" t="s">
-        <v>26</v>
-      </c>
       <c r="D281">
         <v>1</v>
       </c>
-      <c r="E281">
-        <v>28</v>
+      <c r="E281" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>307</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282">
+        <v>28</v>
+      </c>
+      <c r="C282" t="s">
         <v>13</v>
       </c>
-      <c r="C282" t="s">
-        <v>26</v>
-      </c>
       <c r="D282">
         <v>1000</v>
       </c>
-      <c r="E282">
-        <v>28</v>
+      <c r="E282" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>308</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283">
+        <v>28</v>
+      </c>
+      <c r="C283" t="s">
         <v>14</v>
       </c>
-      <c r="C283" t="s">
-        <v>26</v>
-      </c>
       <c r="D283">
         <v>1000</v>
       </c>
-      <c r="E283">
-        <v>28</v>
+      <c r="E283" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>309</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284">
+        <v>28</v>
+      </c>
+      <c r="C284" t="s">
         <v>15</v>
       </c>
-      <c r="C284" t="s">
-        <v>26</v>
-      </c>
       <c r="D284">
         <v>1</v>
       </c>
-      <c r="E284">
-        <v>28</v>
+      <c r="E284" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>310</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285">
+        <v>28</v>
+      </c>
+      <c r="C285" t="s">
         <v>16</v>
       </c>
-      <c r="C285" t="s">
-        <v>26</v>
-      </c>
       <c r="D285">
         <v>1</v>
       </c>
-      <c r="E285">
-        <v>28</v>
+      <c r="E285" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>311</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286">
+        <v>28</v>
+      </c>
+      <c r="C286" t="s">
         <v>17</v>
       </c>
-      <c r="C286" t="s">
-        <v>26</v>
-      </c>
       <c r="D286">
         <v>1000</v>
       </c>
-      <c r="E286">
-        <v>28</v>
+      <c r="E286" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>312</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287">
+        <v>44</v>
+      </c>
+      <c r="C287" t="s">
         <v>0</v>
       </c>
-      <c r="C287" t="s">
-        <v>26</v>
-      </c>
       <c r="D287">
         <v>1</v>
       </c>
-      <c r="E287">
-        <v>44</v>
+      <c r="E287" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>313</v>
       </c>
-      <c r="B288" t="s">
-        <v>1</v>
+      <c r="B288">
+        <v>44</v>
       </c>
       <c r="C288" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D288">
         <v>1000</v>
       </c>
-      <c r="E288">
-        <v>44</v>
+      <c r="E288" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>314</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289">
+        <v>44</v>
+      </c>
+      <c r="C289" t="s">
         <v>2</v>
-      </c>
-      <c r="C289" t="s">
-        <v>26</v>
       </c>
       <c r="D289">
         <v>1E-3</v>
       </c>
-      <c r="E289">
-        <v>44</v>
+      <c r="E289" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>315</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290">
+        <v>44</v>
+      </c>
+      <c r="C290" t="s">
         <v>3</v>
       </c>
-      <c r="C290" t="s">
-        <v>26</v>
-      </c>
       <c r="D290">
         <v>1</v>
       </c>
-      <c r="E290">
-        <v>44</v>
+      <c r="E290" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>316</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291">
+        <v>44</v>
+      </c>
+      <c r="C291" t="s">
         <v>4</v>
-      </c>
-      <c r="C291" t="s">
-        <v>26</v>
       </c>
       <c r="D291">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E291">
-        <v>44</v>
+      <c r="E291" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>317</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292">
+        <v>44</v>
+      </c>
+      <c r="C292" t="s">
         <v>5</v>
-      </c>
-      <c r="C292" t="s">
-        <v>26</v>
       </c>
       <c r="D292">
         <v>37</v>
       </c>
-      <c r="E292">
-        <v>44</v>
+      <c r="E292" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>318</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293">
+        <v>44</v>
+      </c>
+      <c r="C293" t="s">
         <v>6</v>
-      </c>
-      <c r="C293" t="s">
-        <v>26</v>
       </c>
       <c r="D293">
         <v>37000</v>
       </c>
-      <c r="E293">
-        <v>44</v>
+      <c r="E293" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>319</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294">
+        <v>44</v>
+      </c>
+      <c r="C294" t="s">
         <v>12</v>
       </c>
-      <c r="C294" t="s">
-        <v>26</v>
-      </c>
       <c r="D294">
         <v>1</v>
       </c>
-      <c r="E294">
-        <v>44</v>
+      <c r="E294" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>320</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295">
+        <v>44</v>
+      </c>
+      <c r="C295" t="s">
         <v>13</v>
       </c>
-      <c r="C295" t="s">
-        <v>26</v>
-      </c>
       <c r="D295">
         <v>1000</v>
       </c>
-      <c r="E295">
-        <v>44</v>
+      <c r="E295" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>321</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296">
+        <v>44</v>
+      </c>
+      <c r="C296" t="s">
         <v>14</v>
       </c>
-      <c r="C296" t="s">
-        <v>26</v>
-      </c>
       <c r="D296">
         <v>1000</v>
       </c>
-      <c r="E296">
-        <v>44</v>
+      <c r="E296" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>322</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297">
+        <v>44</v>
+      </c>
+      <c r="C297" t="s">
         <v>15</v>
       </c>
-      <c r="C297" t="s">
-        <v>26</v>
-      </c>
       <c r="D297">
         <v>1</v>
       </c>
-      <c r="E297">
-        <v>44</v>
+      <c r="E297" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>323</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298">
+        <v>44</v>
+      </c>
+      <c r="C298" t="s">
         <v>16</v>
       </c>
-      <c r="C298" t="s">
-        <v>26</v>
-      </c>
       <c r="D298">
         <v>1</v>
       </c>
-      <c r="E298">
-        <v>44</v>
+      <c r="E298" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>324</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299">
+        <v>44</v>
+      </c>
+      <c r="C299" t="s">
         <v>17</v>
       </c>
-      <c r="C299" t="s">
-        <v>26</v>
-      </c>
       <c r="D299">
         <v>1000</v>
       </c>
-      <c r="E299">
-        <v>44</v>
+      <c r="E299" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>325</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300">
+        <v>40</v>
+      </c>
+      <c r="C300" t="s">
         <v>0</v>
       </c>
-      <c r="C300" t="s">
-        <v>26</v>
-      </c>
       <c r="D300">
         <v>1</v>
       </c>
-      <c r="E300">
-        <v>40</v>
+      <c r="E300" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>326</v>
       </c>
-      <c r="B301" t="s">
-        <v>1</v>
+      <c r="B301">
+        <v>40</v>
       </c>
       <c r="C301" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D301">
         <v>1000</v>
       </c>
-      <c r="E301">
-        <v>40</v>
+      <c r="E301" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>327</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302">
+        <v>40</v>
+      </c>
+      <c r="C302" t="s">
         <v>2</v>
-      </c>
-      <c r="C302" t="s">
-        <v>26</v>
       </c>
       <c r="D302">
         <v>1E-3</v>
       </c>
-      <c r="E302">
-        <v>40</v>
+      <c r="E302" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>328</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303">
+        <v>40</v>
+      </c>
+      <c r="C303" t="s">
         <v>3</v>
       </c>
-      <c r="C303" t="s">
-        <v>26</v>
-      </c>
       <c r="D303">
         <v>1</v>
       </c>
-      <c r="E303">
-        <v>40</v>
+      <c r="E303" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>329</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304">
+        <v>40</v>
+      </c>
+      <c r="C304" t="s">
         <v>4</v>
-      </c>
-      <c r="C304" t="s">
-        <v>26</v>
       </c>
       <c r="D304">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E304">
-        <v>40</v>
+      <c r="E304" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>330</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305">
+        <v>40</v>
+      </c>
+      <c r="C305" t="s">
         <v>5</v>
-      </c>
-      <c r="C305" t="s">
-        <v>26</v>
       </c>
       <c r="D305">
         <v>37</v>
       </c>
-      <c r="E305">
-        <v>40</v>
+      <c r="E305" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>331</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306">
+        <v>40</v>
+      </c>
+      <c r="C306" t="s">
         <v>6</v>
-      </c>
-      <c r="C306" t="s">
-        <v>26</v>
       </c>
       <c r="D306">
         <v>37000</v>
       </c>
-      <c r="E306">
-        <v>40</v>
+      <c r="E306" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>332</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307">
+        <v>40</v>
+      </c>
+      <c r="C307" t="s">
         <v>12</v>
       </c>
-      <c r="C307" t="s">
-        <v>26</v>
-      </c>
       <c r="D307">
         <v>1</v>
       </c>
-      <c r="E307">
-        <v>40</v>
+      <c r="E307" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>333</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308">
+        <v>40</v>
+      </c>
+      <c r="C308" t="s">
         <v>13</v>
       </c>
-      <c r="C308" t="s">
-        <v>26</v>
-      </c>
       <c r="D308">
         <v>1000</v>
       </c>
-      <c r="E308">
-        <v>40</v>
+      <c r="E308" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>334</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309">
+        <v>40</v>
+      </c>
+      <c r="C309" t="s">
         <v>14</v>
       </c>
-      <c r="C309" t="s">
-        <v>26</v>
-      </c>
       <c r="D309">
         <v>1000</v>
       </c>
-      <c r="E309">
-        <v>40</v>
+      <c r="E309" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>335</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310">
+        <v>40</v>
+      </c>
+      <c r="C310" t="s">
         <v>15</v>
       </c>
-      <c r="C310" t="s">
-        <v>26</v>
-      </c>
       <c r="D310">
         <v>1</v>
       </c>
-      <c r="E310">
-        <v>40</v>
+      <c r="E310" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>336</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311">
+        <v>40</v>
+      </c>
+      <c r="C311" t="s">
         <v>16</v>
       </c>
-      <c r="C311" t="s">
-        <v>26</v>
-      </c>
       <c r="D311">
         <v>1</v>
       </c>
-      <c r="E311">
-        <v>40</v>
+      <c r="E311" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>337</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312">
+        <v>40</v>
+      </c>
+      <c r="C312" t="s">
         <v>17</v>
       </c>
-      <c r="C312" t="s">
-        <v>26</v>
-      </c>
       <c r="D312">
         <v>1000</v>
       </c>
-      <c r="E312">
-        <v>40</v>
+      <c r="E312" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>338</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313">
+        <v>34</v>
+      </c>
+      <c r="C313" t="s">
         <v>0</v>
       </c>
-      <c r="C313" t="s">
-        <v>26</v>
-      </c>
       <c r="D313">
         <v>1</v>
       </c>
-      <c r="E313">
-        <v>34</v>
+      <c r="E313" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>339</v>
       </c>
-      <c r="B314" t="s">
-        <v>1</v>
+      <c r="B314">
+        <v>34</v>
       </c>
       <c r="C314" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D314">
         <v>1000</v>
       </c>
-      <c r="E314">
-        <v>34</v>
+      <c r="E314" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>340</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315">
+        <v>34</v>
+      </c>
+      <c r="C315" t="s">
         <v>2</v>
-      </c>
-      <c r="C315" t="s">
-        <v>26</v>
       </c>
       <c r="D315">
         <v>1E-3</v>
       </c>
-      <c r="E315">
-        <v>34</v>
+      <c r="E315" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>341</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316">
+        <v>34</v>
+      </c>
+      <c r="C316" t="s">
         <v>3</v>
       </c>
-      <c r="C316" t="s">
-        <v>26</v>
-      </c>
       <c r="D316">
         <v>1</v>
       </c>
-      <c r="E316">
-        <v>34</v>
+      <c r="E316" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>342</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317">
+        <v>34</v>
+      </c>
+      <c r="C317" t="s">
         <v>4</v>
-      </c>
-      <c r="C317" t="s">
-        <v>26</v>
       </c>
       <c r="D317">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E317">
-        <v>34</v>
+      <c r="E317" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>343</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318">
+        <v>34</v>
+      </c>
+      <c r="C318" t="s">
         <v>5</v>
-      </c>
-      <c r="C318" t="s">
-        <v>26</v>
       </c>
       <c r="D318">
         <v>37</v>
       </c>
-      <c r="E318">
-        <v>34</v>
+      <c r="E318" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>344</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319">
+        <v>34</v>
+      </c>
+      <c r="C319" t="s">
         <v>6</v>
-      </c>
-      <c r="C319" t="s">
-        <v>26</v>
       </c>
       <c r="D319">
         <v>37000</v>
       </c>
-      <c r="E319">
-        <v>34</v>
+      <c r="E319" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>345</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320">
+        <v>34</v>
+      </c>
+      <c r="C320" t="s">
         <v>12</v>
       </c>
-      <c r="C320" t="s">
-        <v>26</v>
-      </c>
       <c r="D320">
         <v>1</v>
       </c>
-      <c r="E320">
-        <v>34</v>
+      <c r="E320" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>346</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321">
+        <v>34</v>
+      </c>
+      <c r="C321" t="s">
         <v>13</v>
       </c>
-      <c r="C321" t="s">
-        <v>26</v>
-      </c>
       <c r="D321">
         <v>1000</v>
       </c>
-      <c r="E321">
-        <v>34</v>
+      <c r="E321" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>347</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322">
+        <v>34</v>
+      </c>
+      <c r="C322" t="s">
         <v>14</v>
       </c>
-      <c r="C322" t="s">
-        <v>26</v>
-      </c>
       <c r="D322">
         <v>1000</v>
       </c>
-      <c r="E322">
-        <v>34</v>
+      <c r="E322" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>348</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323">
+        <v>34</v>
+      </c>
+      <c r="C323" t="s">
         <v>15</v>
       </c>
-      <c r="C323" t="s">
-        <v>26</v>
-      </c>
       <c r="D323">
         <v>1</v>
       </c>
-      <c r="E323">
-        <v>34</v>
+      <c r="E323" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>349</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324">
+        <v>34</v>
+      </c>
+      <c r="C324" t="s">
         <v>16</v>
       </c>
-      <c r="C324" t="s">
-        <v>26</v>
-      </c>
       <c r="D324">
         <v>1</v>
       </c>
-      <c r="E324">
-        <v>34</v>
+      <c r="E324" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>350</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325">
+        <v>34</v>
+      </c>
+      <c r="C325" t="s">
         <v>17</v>
       </c>
-      <c r="C325" t="s">
-        <v>26</v>
-      </c>
       <c r="D325">
         <v>1000</v>
       </c>
-      <c r="E325">
-        <v>34</v>
+      <c r="E325" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>351</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326">
+        <v>56</v>
+      </c>
+      <c r="C326" t="s">
         <v>0</v>
       </c>
-      <c r="C326" t="s">
-        <v>26</v>
-      </c>
       <c r="D326">
         <v>1</v>
       </c>
-      <c r="E326">
-        <v>56</v>
+      <c r="E326" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>352</v>
       </c>
-      <c r="B327" t="s">
-        <v>1</v>
+      <c r="B327">
+        <v>56</v>
       </c>
       <c r="C327" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D327">
         <v>1000</v>
       </c>
-      <c r="E327">
-        <v>56</v>
+      <c r="E327" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>353</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328">
+        <v>56</v>
+      </c>
+      <c r="C328" t="s">
         <v>2</v>
-      </c>
-      <c r="C328" t="s">
-        <v>26</v>
       </c>
       <c r="D328">
         <v>1E-3</v>
       </c>
-      <c r="E328">
-        <v>56</v>
+      <c r="E328" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>354</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329">
+        <v>56</v>
+      </c>
+      <c r="C329" t="s">
         <v>3</v>
       </c>
-      <c r="C329" t="s">
-        <v>26</v>
-      </c>
       <c r="D329">
         <v>1</v>
       </c>
-      <c r="E329">
-        <v>56</v>
+      <c r="E329" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>355</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330">
+        <v>56</v>
+      </c>
+      <c r="C330" t="s">
         <v>4</v>
-      </c>
-      <c r="C330" t="s">
-        <v>26</v>
       </c>
       <c r="D330">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E330">
-        <v>56</v>
+      <c r="E330" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>356</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331">
+        <v>56</v>
+      </c>
+      <c r="C331" t="s">
         <v>5</v>
-      </c>
-      <c r="C331" t="s">
-        <v>26</v>
       </c>
       <c r="D331">
         <v>37</v>
       </c>
-      <c r="E331">
-        <v>56</v>
+      <c r="E331" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>357</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332">
+        <v>56</v>
+      </c>
+      <c r="C332" t="s">
         <v>6</v>
-      </c>
-      <c r="C332" t="s">
-        <v>26</v>
       </c>
       <c r="D332">
         <v>37000</v>
       </c>
-      <c r="E332">
-        <v>56</v>
+      <c r="E332" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>358</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333">
+        <v>56</v>
+      </c>
+      <c r="C333" t="s">
         <v>12</v>
       </c>
-      <c r="C333" t="s">
-        <v>26</v>
-      </c>
       <c r="D333">
         <v>1</v>
       </c>
-      <c r="E333">
-        <v>56</v>
+      <c r="E333" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>359</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334">
+        <v>56</v>
+      </c>
+      <c r="C334" t="s">
         <v>13</v>
       </c>
-      <c r="C334" t="s">
-        <v>26</v>
-      </c>
       <c r="D334">
         <v>1000</v>
       </c>
-      <c r="E334">
-        <v>56</v>
+      <c r="E334" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>360</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335">
+        <v>56</v>
+      </c>
+      <c r="C335" t="s">
         <v>14</v>
       </c>
-      <c r="C335" t="s">
-        <v>26</v>
-      </c>
       <c r="D335">
         <v>1000</v>
       </c>
-      <c r="E335">
-        <v>56</v>
+      <c r="E335" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>361</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336">
+        <v>56</v>
+      </c>
+      <c r="C336" t="s">
         <v>15</v>
       </c>
-      <c r="C336" t="s">
-        <v>26</v>
-      </c>
       <c r="D336">
         <v>1</v>
       </c>
-      <c r="E336">
-        <v>56</v>
+      <c r="E336" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>362</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337">
+        <v>56</v>
+      </c>
+      <c r="C337" t="s">
         <v>16</v>
       </c>
-      <c r="C337" t="s">
-        <v>26</v>
-      </c>
       <c r="D337">
         <v>1</v>
       </c>
-      <c r="E337">
-        <v>56</v>
+      <c r="E337" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>363</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338">
+        <v>56</v>
+      </c>
+      <c r="C338" t="s">
         <v>17</v>
       </c>
-      <c r="C338" t="s">
-        <v>26</v>
-      </c>
       <c r="D338">
         <v>1000</v>
       </c>
-      <c r="E338">
-        <v>56</v>
+      <c r="E338" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>364</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339">
+        <v>37</v>
+      </c>
+      <c r="C339" t="s">
         <v>0</v>
       </c>
-      <c r="C339" t="s">
-        <v>26</v>
-      </c>
       <c r="D339">
         <v>1</v>
       </c>
-      <c r="E339">
-        <v>37</v>
+      <c r="E339" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>365</v>
       </c>
-      <c r="B340" t="s">
-        <v>1</v>
+      <c r="B340">
+        <v>37</v>
       </c>
       <c r="C340" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D340">
         <v>1000</v>
       </c>
-      <c r="E340">
-        <v>37</v>
+      <c r="E340" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>366</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341">
+        <v>37</v>
+      </c>
+      <c r="C341" t="s">
         <v>2</v>
-      </c>
-      <c r="C341" t="s">
-        <v>26</v>
       </c>
       <c r="D341">
         <v>1E-3</v>
       </c>
-      <c r="E341">
-        <v>37</v>
+      <c r="E341" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>367</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342">
+        <v>37</v>
+      </c>
+      <c r="C342" t="s">
         <v>3</v>
       </c>
-      <c r="C342" t="s">
-        <v>26</v>
-      </c>
       <c r="D342">
         <v>1</v>
       </c>
-      <c r="E342">
-        <v>37</v>
+      <c r="E342" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>368</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343">
+        <v>37</v>
+      </c>
+      <c r="C343" t="s">
         <v>4</v>
-      </c>
-      <c r="C343" t="s">
-        <v>26</v>
       </c>
       <c r="D343">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E343">
-        <v>37</v>
+      <c r="E343" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>369</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344">
+        <v>37</v>
+      </c>
+      <c r="C344" t="s">
         <v>5</v>
-      </c>
-      <c r="C344" t="s">
-        <v>26</v>
       </c>
       <c r="D344">
         <v>37</v>
       </c>
-      <c r="E344">
-        <v>37</v>
+      <c r="E344" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>370</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345">
+        <v>37</v>
+      </c>
+      <c r="C345" t="s">
         <v>6</v>
-      </c>
-      <c r="C345" t="s">
-        <v>26</v>
       </c>
       <c r="D345">
         <v>37000</v>
       </c>
-      <c r="E345">
-        <v>37</v>
+      <c r="E345" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>371</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346">
+        <v>37</v>
+      </c>
+      <c r="C346" t="s">
         <v>12</v>
       </c>
-      <c r="C346" t="s">
-        <v>26</v>
-      </c>
       <c r="D346">
         <v>1</v>
       </c>
-      <c r="E346">
-        <v>37</v>
+      <c r="E346" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>372</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347">
+        <v>37</v>
+      </c>
+      <c r="C347" t="s">
         <v>13</v>
       </c>
-      <c r="C347" t="s">
-        <v>26</v>
-      </c>
       <c r="D347">
         <v>1000</v>
       </c>
-      <c r="E347">
-        <v>37</v>
+      <c r="E347" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>373</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348">
+        <v>37</v>
+      </c>
+      <c r="C348" t="s">
         <v>14</v>
       </c>
-      <c r="C348" t="s">
-        <v>26</v>
-      </c>
       <c r="D348">
         <v>1000</v>
       </c>
-      <c r="E348">
-        <v>37</v>
+      <c r="E348" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>374</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349">
+        <v>37</v>
+      </c>
+      <c r="C349" t="s">
         <v>15</v>
       </c>
-      <c r="C349" t="s">
-        <v>26</v>
-      </c>
       <c r="D349">
         <v>1</v>
       </c>
-      <c r="E349">
-        <v>37</v>
+      <c r="E349" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>375</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350">
+        <v>37</v>
+      </c>
+      <c r="C350" t="s">
         <v>16</v>
       </c>
-      <c r="C350" t="s">
-        <v>26</v>
-      </c>
       <c r="D350">
         <v>1</v>
       </c>
-      <c r="E350">
-        <v>37</v>
+      <c r="E350" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>376</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351">
+        <v>37</v>
+      </c>
+      <c r="C351" t="s">
         <v>17</v>
       </c>
-      <c r="C351" t="s">
-        <v>26</v>
-      </c>
       <c r="D351">
         <v>1000</v>
       </c>
-      <c r="E351">
-        <v>37</v>
+      <c r="E351" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>377</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352">
+        <v>31</v>
+      </c>
+      <c r="C352" t="s">
         <v>0</v>
       </c>
-      <c r="C352" t="s">
-        <v>26</v>
-      </c>
       <c r="D352">
         <v>1</v>
       </c>
-      <c r="E352">
-        <v>31</v>
+      <c r="E352" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>378</v>
       </c>
-      <c r="B353" t="s">
-        <v>1</v>
+      <c r="B353">
+        <v>31</v>
       </c>
       <c r="C353" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D353">
         <v>1000</v>
       </c>
-      <c r="E353">
-        <v>31</v>
+      <c r="E353" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>379</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354">
+        <v>31</v>
+      </c>
+      <c r="C354" t="s">
         <v>2</v>
-      </c>
-      <c r="C354" t="s">
-        <v>26</v>
       </c>
       <c r="D354">
         <v>1E-3</v>
       </c>
-      <c r="E354">
-        <v>31</v>
+      <c r="E354" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>380</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355">
+        <v>31</v>
+      </c>
+      <c r="C355" t="s">
         <v>3</v>
       </c>
-      <c r="C355" t="s">
-        <v>26</v>
-      </c>
       <c r="D355">
         <v>1</v>
       </c>
-      <c r="E355">
-        <v>31</v>
+      <c r="E355" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>381</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356">
+        <v>31</v>
+      </c>
+      <c r="C356" t="s">
         <v>4</v>
-      </c>
-      <c r="C356" t="s">
-        <v>26</v>
       </c>
       <c r="D356">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E356">
-        <v>31</v>
+      <c r="E356" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>382</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357">
+        <v>31</v>
+      </c>
+      <c r="C357" t="s">
         <v>5</v>
-      </c>
-      <c r="C357" t="s">
-        <v>26</v>
       </c>
       <c r="D357">
         <v>37</v>
       </c>
-      <c r="E357">
-        <v>31</v>
+      <c r="E357" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>383</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358">
+        <v>31</v>
+      </c>
+      <c r="C358" t="s">
         <v>6</v>
-      </c>
-      <c r="C358" t="s">
-        <v>26</v>
       </c>
       <c r="D358">
         <v>37000</v>
       </c>
-      <c r="E358">
-        <v>31</v>
+      <c r="E358" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>384</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359">
+        <v>31</v>
+      </c>
+      <c r="C359" t="s">
         <v>12</v>
       </c>
-      <c r="C359" t="s">
-        <v>26</v>
-      </c>
       <c r="D359">
         <v>1</v>
       </c>
-      <c r="E359">
-        <v>31</v>
+      <c r="E359" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>385</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360">
+        <v>31</v>
+      </c>
+      <c r="C360" t="s">
         <v>13</v>
       </c>
-      <c r="C360" t="s">
-        <v>26</v>
-      </c>
       <c r="D360">
         <v>1000</v>
       </c>
-      <c r="E360">
-        <v>31</v>
+      <c r="E360" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>386</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361">
+        <v>31</v>
+      </c>
+      <c r="C361" t="s">
         <v>14</v>
       </c>
-      <c r="C361" t="s">
-        <v>26</v>
-      </c>
       <c r="D361">
         <v>1000</v>
       </c>
-      <c r="E361">
-        <v>31</v>
+      <c r="E361" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>387</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362">
+        <v>31</v>
+      </c>
+      <c r="C362" t="s">
         <v>15</v>
       </c>
-      <c r="C362" t="s">
-        <v>26</v>
-      </c>
       <c r="D362">
         <v>1</v>
       </c>
-      <c r="E362">
-        <v>31</v>
+      <c r="E362" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>388</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363">
+        <v>31</v>
+      </c>
+      <c r="C363" t="s">
         <v>16</v>
       </c>
-      <c r="C363" t="s">
-        <v>26</v>
-      </c>
       <c r="D363">
         <v>1</v>
       </c>
-      <c r="E363">
-        <v>31</v>
+      <c r="E363" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>389</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364">
+        <v>31</v>
+      </c>
+      <c r="C364" t="s">
         <v>17</v>
       </c>
-      <c r="C364" t="s">
-        <v>26</v>
-      </c>
       <c r="D364">
         <v>1000</v>
       </c>
-      <c r="E364">
-        <v>31</v>
+      <c r="E364" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>390</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365">
+        <v>52</v>
+      </c>
+      <c r="C365" t="s">
         <v>0</v>
       </c>
-      <c r="C365" t="s">
-        <v>26</v>
-      </c>
       <c r="D365">
         <v>1</v>
       </c>
-      <c r="E365">
-        <v>52</v>
+      <c r="E365" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>391</v>
       </c>
-      <c r="B366" t="s">
-        <v>1</v>
+      <c r="B366">
+        <v>52</v>
       </c>
       <c r="C366" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D366">
         <v>1000</v>
       </c>
-      <c r="E366">
-        <v>52</v>
+      <c r="E366" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>392</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367">
+        <v>52</v>
+      </c>
+      <c r="C367" t="s">
         <v>2</v>
-      </c>
-      <c r="C367" t="s">
-        <v>26</v>
       </c>
       <c r="D367">
         <v>1E-3</v>
       </c>
-      <c r="E367">
-        <v>52</v>
+      <c r="E367" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>393</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368">
+        <v>52</v>
+      </c>
+      <c r="C368" t="s">
         <v>3</v>
       </c>
-      <c r="C368" t="s">
-        <v>26</v>
-      </c>
       <c r="D368">
         <v>1</v>
       </c>
-      <c r="E368">
-        <v>52</v>
+      <c r="E368" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>394</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369">
+        <v>52</v>
+      </c>
+      <c r="C369" t="s">
         <v>4</v>
-      </c>
-      <c r="C369" t="s">
-        <v>26</v>
       </c>
       <c r="D369">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E369">
-        <v>52</v>
+      <c r="E369" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>395</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370">
+        <v>52</v>
+      </c>
+      <c r="C370" t="s">
         <v>5</v>
-      </c>
-      <c r="C370" t="s">
-        <v>26</v>
       </c>
       <c r="D370">
         <v>37</v>
       </c>
-      <c r="E370">
-        <v>52</v>
+      <c r="E370" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>396</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371">
+        <v>52</v>
+      </c>
+      <c r="C371" t="s">
         <v>6</v>
-      </c>
-      <c r="C371" t="s">
-        <v>26</v>
       </c>
       <c r="D371">
         <v>37000</v>
       </c>
-      <c r="E371">
-        <v>52</v>
+      <c r="E371" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>397</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372">
+        <v>52</v>
+      </c>
+      <c r="C372" t="s">
         <v>12</v>
       </c>
-      <c r="C372" t="s">
-        <v>26</v>
-      </c>
       <c r="D372">
         <v>1</v>
       </c>
-      <c r="E372">
-        <v>52</v>
+      <c r="E372" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>398</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373">
+        <v>52</v>
+      </c>
+      <c r="C373" t="s">
         <v>13</v>
       </c>
-      <c r="C373" t="s">
-        <v>26</v>
-      </c>
       <c r="D373">
         <v>1000</v>
       </c>
-      <c r="E373">
-        <v>52</v>
+      <c r="E373" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>399</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374">
+        <v>52</v>
+      </c>
+      <c r="C374" t="s">
         <v>14</v>
       </c>
-      <c r="C374" t="s">
-        <v>26</v>
-      </c>
       <c r="D374">
         <v>1000</v>
       </c>
-      <c r="E374">
-        <v>52</v>
+      <c r="E374" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>400</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375">
+        <v>52</v>
+      </c>
+      <c r="C375" t="s">
         <v>15</v>
       </c>
-      <c r="C375" t="s">
-        <v>26</v>
-      </c>
       <c r="D375">
         <v>1</v>
       </c>
-      <c r="E375">
-        <v>52</v>
+      <c r="E375" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>401</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376">
+        <v>52</v>
+      </c>
+      <c r="C376" t="s">
         <v>16</v>
       </c>
-      <c r="C376" t="s">
-        <v>26</v>
-      </c>
       <c r="D376">
         <v>1</v>
       </c>
-      <c r="E376">
-        <v>52</v>
+      <c r="E376" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>402</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377">
+        <v>52</v>
+      </c>
+      <c r="C377" t="s">
         <v>17</v>
       </c>
-      <c r="C377" t="s">
-        <v>26</v>
-      </c>
       <c r="D377">
         <v>1000</v>
       </c>
-      <c r="E377">
-        <v>52</v>
+      <c r="E377" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>403</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378">
+        <v>48</v>
+      </c>
+      <c r="C378" t="s">
         <v>0</v>
       </c>
-      <c r="C378" t="s">
-        <v>26</v>
-      </c>
       <c r="D378">
         <v>1</v>
       </c>
-      <c r="E378">
-        <v>48</v>
+      <c r="E378" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>404</v>
       </c>
-      <c r="B379" t="s">
-        <v>1</v>
+      <c r="B379">
+        <v>48</v>
       </c>
       <c r="C379" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D379">
         <v>1000</v>
       </c>
-      <c r="E379">
-        <v>48</v>
+      <c r="E379" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>405</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380">
+        <v>48</v>
+      </c>
+      <c r="C380" t="s">
         <v>2</v>
-      </c>
-      <c r="C380" t="s">
-        <v>26</v>
       </c>
       <c r="D380">
         <v>1E-3</v>
       </c>
-      <c r="E380">
-        <v>48</v>
+      <c r="E380" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>406</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381">
+        <v>48</v>
+      </c>
+      <c r="C381" t="s">
         <v>3</v>
       </c>
-      <c r="C381" t="s">
-        <v>26</v>
-      </c>
       <c r="D381">
         <v>1</v>
       </c>
-      <c r="E381">
-        <v>48</v>
+      <c r="E381" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>407</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382">
+        <v>48</v>
+      </c>
+      <c r="C382" t="s">
         <v>4</v>
-      </c>
-      <c r="C382" t="s">
-        <v>26</v>
       </c>
       <c r="D382">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E382">
-        <v>48</v>
+      <c r="E382" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>408</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383">
+        <v>48</v>
+      </c>
+      <c r="C383" t="s">
         <v>5</v>
-      </c>
-      <c r="C383" t="s">
-        <v>26</v>
       </c>
       <c r="D383">
         <v>37</v>
       </c>
-      <c r="E383">
-        <v>48</v>
+      <c r="E383" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>409</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384">
+        <v>48</v>
+      </c>
+      <c r="C384" t="s">
         <v>6</v>
-      </c>
-      <c r="C384" t="s">
-        <v>26</v>
       </c>
       <c r="D384">
         <v>37000</v>
       </c>
-      <c r="E384">
-        <v>48</v>
+      <c r="E384" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>410</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385">
+        <v>48</v>
+      </c>
+      <c r="C385" t="s">
         <v>12</v>
       </c>
-      <c r="C385" t="s">
-        <v>26</v>
-      </c>
       <c r="D385">
         <v>1</v>
       </c>
-      <c r="E385">
-        <v>48</v>
+      <c r="E385" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>411</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386">
+        <v>48</v>
+      </c>
+      <c r="C386" t="s">
         <v>13</v>
       </c>
-      <c r="C386" t="s">
-        <v>26</v>
-      </c>
       <c r="D386">
         <v>1000</v>
       </c>
-      <c r="E386">
-        <v>48</v>
+      <c r="E386" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>412</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387">
+        <v>48</v>
+      </c>
+      <c r="C387" t="s">
         <v>14</v>
       </c>
-      <c r="C387" t="s">
-        <v>26</v>
-      </c>
       <c r="D387">
         <v>1000</v>
       </c>
-      <c r="E387">
-        <v>48</v>
+      <c r="E387" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>413</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388">
+        <v>48</v>
+      </c>
+      <c r="C388" t="s">
         <v>15</v>
       </c>
-      <c r="C388" t="s">
-        <v>26</v>
-      </c>
       <c r="D388">
         <v>1</v>
       </c>
-      <c r="E388">
-        <v>48</v>
+      <c r="E388" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>414</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389">
+        <v>48</v>
+      </c>
+      <c r="C389" t="s">
         <v>16</v>
       </c>
-      <c r="C389" t="s">
-        <v>26</v>
-      </c>
       <c r="D389">
         <v>1</v>
       </c>
-      <c r="E389">
-        <v>48</v>
+      <c r="E389" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>415</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390">
+        <v>48</v>
+      </c>
+      <c r="C390" t="s">
         <v>17</v>
       </c>
-      <c r="C390" t="s">
-        <v>26</v>
-      </c>
       <c r="D390">
         <v>1000</v>
       </c>
-      <c r="E390">
-        <v>48</v>
+      <c r="E390" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
